--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_15_2.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_15_2.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2486946.126408636</v>
+        <v>-2489890.930471807</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>6.876045741711437</v>
+        <v>6.05642108929943</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -956,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>6.056421089299432</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -981,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1026,22 +1026,22 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>6.056421089299432</v>
       </c>
       <c r="Y6" t="n">
-        <v>6.056421089299432</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1063,52 +1063,52 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="G7" t="n">
+      <c r="J7" t="n">
+        <v>6.056421089299432</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="H7" t="n">
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>6.05642108929943</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>38.73153477940883</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1145,13 +1145,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>109.2911644055744</v>
+        <v>13.50827641206216</v>
       </c>
       <c r="H8" t="n">
-        <v>109.2911644055744</v>
+        <v>109.2911644055737</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>109.2911644055737</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.14780067524684</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.2911644055737</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>109.2911644055744</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>89.38761186671854</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1215,7 +1215,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>109.2911644055744</v>
+        <v>109.2911644055737</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1224,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>55.71756736669363</v>
+        <v>109.2911644055737</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1257,16 +1257,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>40.54609024173633</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>109.2911644055744</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>109.2911644055744</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1275,10 +1275,10 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>109.2911644055737</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>96.26365760842924</v>
       </c>
     </row>
     <row r="10">
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>77.50381646453162</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1309,10 +1309,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>109.2911644055744</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>36.45038348304592</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>18.75984114389756</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1345,19 +1345,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>109.2911644055744</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>59.81327412538403</v>
+        <v>109.2911644055737</v>
       </c>
       <c r="W10" t="n">
-        <v>109.2911644055744</v>
+        <v>109.2911644055737</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>109.2911644055737</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>317.2257262156692</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>410.1644063769637</v>
@@ -1424,7 +1424,7 @@
         <v>200.6028050067863</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9345864167828</v>
+        <v>202.887420861445</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1534,19 +1534,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>125.3319258591514</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.6861009032421</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>141.7347076965137</v>
       </c>
       <c r="I13" t="n">
-        <v>86.13649374674407</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>73.65767465442971</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.9514576969237</v>
+        <v>183.8488525946973</v>
       </c>
       <c r="T13" t="n">
         <v>218.097472392356</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1933087134791</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1613,7 +1613,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>31.31788591643245</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1625,7 +1625,7 @@
         <v>286.8518683469699</v>
       </c>
       <c r="I14" t="n">
-        <v>12.38037836605497</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>91.93034877516573</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>200.6028050067863</v>
@@ -1664,13 +1664,13 @@
         <v>250.9345864167828</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>242.5601478515541</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1768,16 +1768,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>1.788945428643625</v>
       </c>
       <c r="H16" t="n">
         <v>141.7347076965137</v>
@@ -1813,10 +1813,10 @@
         <v>73.65767465442973</v>
       </c>
       <c r="S16" t="n">
-        <v>109.0693493164151</v>
+        <v>183.8488525946973</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>218.097472392356</v>
       </c>
       <c r="U16" t="n">
         <v>286.1933087134791</v>
@@ -1828,10 +1828,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1856,7 @@
         <v>375.2658433894975</v>
       </c>
       <c r="G17" t="n">
-        <v>378.5542040247498</v>
+        <v>378.5542040247514</v>
       </c>
       <c r="H17" t="n">
         <v>255.2416659947559</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>60.32014642295177</v>
+        <v>60.32014642295178</v>
       </c>
       <c r="T17" t="n">
         <v>168.9926026545724</v>
@@ -1941,7 +1941,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I18" t="n">
-        <v>4.866200902188993</v>
+        <v>4.866200902189007</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>120.6170668389678</v>
+        <v>120.6170668389679</v>
       </c>
       <c r="T18" t="n">
         <v>189.0833237787849</v>
@@ -2020,7 +2020,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I19" t="n">
-        <v>54.52629139453013</v>
+        <v>54.52629139453052</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2056,7 +2056,7 @@
         <v>186.487270040142</v>
       </c>
       <c r="U19" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612651</v>
       </c>
       <c r="V19" t="n">
         <v>220.5274409716141</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>60.32014642295177</v>
+        <v>60.32014642295178</v>
       </c>
       <c r="T20" t="n">
         <v>168.9926026545724</v>
@@ -2178,7 +2178,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I21" t="n">
-        <v>4.866200902188993</v>
+        <v>4.866200902189007</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>120.6170668389678</v>
+        <v>120.6170668389679</v>
       </c>
       <c r="T21" t="n">
         <v>189.0833237787849</v>
@@ -2248,7 +2248,7 @@
         <v>114.8237602943552</v>
       </c>
       <c r="F22" t="n">
-        <v>113.8108456707177</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G22" t="n">
         <v>134.0758985510282</v>
@@ -2257,7 +2257,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I22" t="n">
-        <v>54.52629139453013</v>
+        <v>54.52629139453012</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>42.04747230221577</v>
+        <v>42.04747230221578</v>
       </c>
       <c r="S22" t="n">
         <v>152.2386502424833</v>
@@ -2293,7 +2293,7 @@
         <v>186.487270040142</v>
       </c>
       <c r="U22" t="n">
-        <v>254.5831063612651</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V22" t="n">
         <v>220.5274409716141</v>
@@ -2315,16 +2315,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112667</v>
       </c>
       <c r="C23" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D23" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E23" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F23" t="n">
         <v>375.2658433894975</v>
@@ -2333,7 +2333,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H23" t="n">
-        <v>255.2416659947559</v>
+        <v>255.241665994756</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,16 +2366,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>60.32014642295177</v>
+        <v>60.32014642295178</v>
       </c>
       <c r="T23" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U23" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V23" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179206</v>
       </c>
       <c r="W23" t="n">
         <v>317.6307663651991</v>
@@ -2384,7 +2384,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y23" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="24">
@@ -2479,10 +2479,10 @@
         <v>135.6366187464139</v>
       </c>
       <c r="D25" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659985</v>
       </c>
       <c r="E25" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F25" t="n">
         <v>113.8108456707173</v>
@@ -2494,7 +2494,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I25" t="n">
-        <v>54.52629139453013</v>
+        <v>54.52629139453016</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>42.04747230221577</v>
+        <v>42.04747230221579</v>
       </c>
       <c r="S25" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T25" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U25" t="n">
-        <v>254.5831063612651</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V25" t="n">
         <v>220.5274409716141</v>
@@ -2542,7 +2542,7 @@
         <v>194.0994530368232</v>
       </c>
       <c r="Y25" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="26">
@@ -2552,16 +2552,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112667</v>
       </c>
       <c r="C26" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D26" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E26" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F26" t="n">
         <v>375.2658433894975</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>60.32014642295177</v>
+        <v>60.32014642295178</v>
       </c>
       <c r="T26" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U26" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V26" t="n">
         <v>296.142056117921</v>
@@ -2621,7 +2621,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y26" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="27">
@@ -2716,10 +2716,10 @@
         <v>135.6366187464139</v>
       </c>
       <c r="D28" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659985</v>
       </c>
       <c r="E28" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F28" t="n">
         <v>113.8108456707173</v>
@@ -2731,7 +2731,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I28" t="n">
-        <v>54.52629139453013</v>
+        <v>54.52629139453016</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.04747230221577</v>
+        <v>42.04747230221579</v>
       </c>
       <c r="S28" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T28" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U28" t="n">
-        <v>254.5831063612651</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V28" t="n">
         <v>220.5274409716141</v>
@@ -2779,7 +2779,7 @@
         <v>194.0994530368232</v>
       </c>
       <c r="Y28" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="29">
@@ -2789,16 +2789,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112667</v>
       </c>
       <c r="C29" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D29" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E29" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F29" t="n">
         <v>375.2658433894975</v>
@@ -2807,7 +2807,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H29" t="n">
-        <v>255.2416659947559</v>
+        <v>255.241665994756</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>60.32014642295175</v>
+        <v>60.32014642295182</v>
       </c>
       <c r="T29" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U29" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V29" t="n">
         <v>296.142056117921</v>
@@ -2858,7 +2858,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y29" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="30">
@@ -2953,22 +2953,22 @@
         <v>135.6366187464139</v>
       </c>
       <c r="D31" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659985</v>
       </c>
       <c r="E31" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F31" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707174</v>
       </c>
       <c r="G31" t="n">
-        <v>134.0758985510282</v>
+        <v>134.0758985510283</v>
       </c>
       <c r="H31" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442998</v>
       </c>
       <c r="I31" t="n">
-        <v>54.52629139453012</v>
+        <v>54.52629139453019</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.04747230221577</v>
+        <v>42.04747230221582</v>
       </c>
       <c r="S31" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424816</v>
       </c>
       <c r="T31" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U31" t="n">
-        <v>254.5831063612651</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V31" t="n">
         <v>220.5274409716141</v>
       </c>
       <c r="W31" t="n">
-        <v>254.9127959843784</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X31" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368233</v>
       </c>
       <c r="Y31" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="32">
@@ -3026,16 +3026,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>351.1236393112667</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C32" t="n">
-        <v>333.6626894187937</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D32" t="n">
-        <v>323.0728392684691</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E32" t="n">
-        <v>350.3201677200479</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F32" t="n">
         <v>375.2658433894975</v>
@@ -3044,7 +3044,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H32" t="n">
-        <v>255.241665994756</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>60.32014642295178</v>
+        <v>60.32014642295175</v>
       </c>
       <c r="T32" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U32" t="n">
-        <v>219.3243840645689</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V32" t="n">
         <v>296.142056117921</v>
@@ -3092,10 +3092,10 @@
         <v>317.6307663651991</v>
       </c>
       <c r="X32" t="n">
-        <v>338.1208983262555</v>
+        <v>338.1208983262551</v>
       </c>
       <c r="Y32" t="n">
-        <v>354.6277363038397</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="33">
@@ -3193,7 +3193,7 @@
         <v>117.0052706659984</v>
       </c>
       <c r="E34" t="n">
-        <v>114.8237602943553</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F34" t="n">
         <v>113.8108456707173</v>
@@ -3205,7 +3205,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I34" t="n">
-        <v>54.52629139453015</v>
+        <v>54.52629139453013</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.0474723022158</v>
+        <v>42.04747230221577</v>
       </c>
       <c r="S34" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424839</v>
       </c>
       <c r="T34" t="n">
-        <v>186.4872700401421</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U34" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612651</v>
       </c>
       <c r="V34" t="n">
         <v>220.5274409716141</v>
@@ -3253,7 +3253,7 @@
         <v>194.0994530368232</v>
       </c>
       <c r="Y34" t="n">
-        <v>186.9744509998809</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="35">
@@ -3314,19 +3314,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>60.32014642295178</v>
+        <v>60.32014642295175</v>
       </c>
       <c r="T35" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U35" t="n">
-        <v>219.3243840645689</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V35" t="n">
         <v>296.142056117921</v>
       </c>
       <c r="W35" t="n">
-        <v>317.6307663651991</v>
+        <v>317.6307663651996</v>
       </c>
       <c r="X35" t="n">
         <v>338.1208983262551</v>
@@ -3430,7 +3430,7 @@
         <v>117.0052706659984</v>
       </c>
       <c r="E37" t="n">
-        <v>114.8237602943553</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F37" t="n">
         <v>113.8108456707173</v>
@@ -3442,7 +3442,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I37" t="n">
-        <v>54.52629139453025</v>
+        <v>54.52629139453013</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.04747230221579</v>
+        <v>42.04747230221577</v>
       </c>
       <c r="S37" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T37" t="n">
-        <v>186.4872700401421</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U37" t="n">
         <v>254.5831063612652</v>
@@ -3490,7 +3490,7 @@
         <v>194.0994530368232</v>
       </c>
       <c r="Y37" t="n">
-        <v>186.9744509998809</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="38">
@@ -3500,16 +3500,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>351.1236393112667</v>
+        <v>351.1236393112672</v>
       </c>
       <c r="C38" t="n">
-        <v>333.6626894187937</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D38" t="n">
-        <v>323.0728392684691</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E38" t="n">
-        <v>350.3201677200479</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F38" t="n">
         <v>375.2658433894975</v>
@@ -3518,7 +3518,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H38" t="n">
-        <v>255.241665994756</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>60.32014642295178</v>
+        <v>60.32014642295172</v>
       </c>
       <c r="T38" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545723</v>
       </c>
       <c r="U38" t="n">
-        <v>219.3243840645695</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V38" t="n">
         <v>296.142056117921</v>
@@ -3569,7 +3569,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y38" t="n">
-        <v>354.6277363038397</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="39">
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>148.2217778297234</v>
+        <v>148.2217778297233</v>
       </c>
       <c r="C40" t="n">
         <v>135.6366187464139</v>
@@ -3667,7 +3667,7 @@
         <v>117.0052706659984</v>
       </c>
       <c r="E40" t="n">
-        <v>114.8237602943553</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F40" t="n">
         <v>113.8108456707173</v>
@@ -3679,7 +3679,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I40" t="n">
-        <v>54.52629139453015</v>
+        <v>54.52629139453009</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.0474723022158</v>
+        <v>42.04747230221574</v>
       </c>
       <c r="S40" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T40" t="n">
-        <v>186.4872700401421</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U40" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612651</v>
       </c>
       <c r="V40" t="n">
-        <v>220.5274409716141</v>
+        <v>220.527440971614</v>
       </c>
       <c r="W40" t="n">
-        <v>254.9127959843771</v>
+        <v>254.912795984377</v>
       </c>
       <c r="X40" t="n">
         <v>194.0994530368232</v>
       </c>
       <c r="Y40" t="n">
-        <v>186.9744509998809</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="41">
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>60.32014642295175</v>
+        <v>60.32014642295178</v>
       </c>
       <c r="T41" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U41" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V41" t="n">
         <v>296.142056117921</v>
@@ -3904,7 +3904,7 @@
         <v>117.0052706659984</v>
       </c>
       <c r="E43" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F43" t="n">
         <v>113.8108456707173</v>
@@ -3916,7 +3916,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I43" t="n">
-        <v>54.52629139453011</v>
+        <v>54.52629139453015</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.04747230221576</v>
+        <v>42.04747230221579</v>
       </c>
       <c r="S43" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T43" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U43" t="n">
         <v>254.5831063612652</v>
@@ -3964,7 +3964,7 @@
         <v>194.0994530368232</v>
       </c>
       <c r="Y43" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="44">
@@ -3974,16 +3974,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112667</v>
       </c>
       <c r="C44" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D44" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E44" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F44" t="n">
         <v>375.2658433894975</v>
@@ -3992,7 +3992,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H44" t="n">
-        <v>255.2416659947559</v>
+        <v>255.241665994756</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>60.32014642295175</v>
+        <v>60.32014642295181</v>
       </c>
       <c r="T44" t="n">
-        <v>168.9926026545726</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U44" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V44" t="n">
         <v>296.142056117921</v>
@@ -4043,7 +4043,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y44" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="45">
@@ -4138,22 +4138,22 @@
         <v>135.6366187464139</v>
       </c>
       <c r="D46" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659985</v>
       </c>
       <c r="E46" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F46" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707174</v>
       </c>
       <c r="G46" t="n">
         <v>134.0758985510282</v>
       </c>
       <c r="H46" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442998</v>
       </c>
       <c r="I46" t="n">
-        <v>54.52629139453011</v>
+        <v>54.52629139453018</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.04747230221576</v>
+        <v>42.04747230221582</v>
       </c>
       <c r="S46" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424834</v>
       </c>
       <c r="T46" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U46" t="n">
         <v>254.5831063612652</v>
@@ -4198,10 +4198,10 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X46" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368233</v>
       </c>
       <c r="Y46" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
   </sheetData>
@@ -4541,46 +4541,46 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>21.38658590694733</v>
+      </c>
+      <c r="C5" t="n">
+        <v>21.38658590694733</v>
+      </c>
+      <c r="D5" t="n">
+        <v>21.38658590694733</v>
+      </c>
+      <c r="E5" t="n">
+        <v>21.38658590694733</v>
+      </c>
+      <c r="F5" t="n">
         <v>14.44108515774386</v>
       </c>
-      <c r="C5" t="n">
-        <v>14.44108515774386</v>
-      </c>
-      <c r="D5" t="n">
-        <v>14.44108515774386</v>
-      </c>
-      <c r="E5" t="n">
-        <v>14.44108515774386</v>
-      </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>7.495584408540386</v>
       </c>
-      <c r="G5" t="n">
-        <v>0.5500836593369149</v>
-      </c>
       <c r="H5" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="I5" t="n">
         <v>0.5500836593369149</v>
       </c>
       <c r="J5" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="K5" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="L5" t="n">
-        <v>7.082327113962777</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="M5" t="n">
-        <v>7.082327113962777</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="N5" t="n">
-        <v>7.082327113962777</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="O5" t="n">
-        <v>13.8896123982571</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="P5" t="n">
         <v>20.69689768255142</v>
@@ -4589,28 +4589,28 @@
         <v>27.50418296684575</v>
       </c>
       <c r="R5" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="S5" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="T5" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="U5" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="V5" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="W5" t="n">
-        <v>14.44108515774386</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="X5" t="n">
-        <v>14.44108515774386</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="Y5" t="n">
-        <v>14.44108515774386</v>
+        <v>21.38658590694733</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>14.44108515774386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="C6" t="n">
-        <v>14.44108515774386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="D6" t="n">
-        <v>14.44108515774386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="E6" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="F6" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="G6" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="H6" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="I6" t="n">
         <v>0.5500836593369149</v>
@@ -4647,19 +4647,19 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="K6" t="n">
-        <v>7.082327113962777</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="L6" t="n">
-        <v>7.082327113962777</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="M6" t="n">
-        <v>13.8896123982571</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="N6" t="n">
-        <v>20.69689768255142</v>
+        <v>14.16465422792556</v>
       </c>
       <c r="O6" t="n">
-        <v>27.50418296684575</v>
+        <v>20.97193951221988</v>
       </c>
       <c r="P6" t="n">
         <v>27.50418296684575</v>
@@ -4674,22 +4674,22 @@
         <v>20.55868221764227</v>
       </c>
       <c r="T6" t="n">
-        <v>20.55868221764227</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="U6" t="n">
-        <v>20.55868221764227</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="V6" t="n">
-        <v>20.55868221764227</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="W6" t="n">
-        <v>20.55868221764227</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="X6" t="n">
-        <v>20.55868221764227</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="Y6" t="n">
-        <v>14.44108515774386</v>
+        <v>0.5500836593369149</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>21.38658590694733</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="C7" t="n">
-        <v>21.38658590694733</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="D7" t="n">
-        <v>21.38658590694733</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="E7" t="n">
-        <v>21.38658590694733</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="F7" t="n">
-        <v>14.44108515774386</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="G7" t="n">
-        <v>7.495584408540386</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5500836593369149</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5500836593369149</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="J7" t="n">
         <v>0.5500836593369149</v>
@@ -4729,46 +4729,46 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="L7" t="n">
-        <v>7.082327113962777</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="M7" t="n">
-        <v>13.8896123982571</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="N7" t="n">
-        <v>20.69689768255142</v>
+        <v>14.16465422792556</v>
       </c>
       <c r="O7" t="n">
-        <v>27.50418296684575</v>
+        <v>20.97193951221988</v>
       </c>
       <c r="P7" t="n">
         <v>27.50418296684575</v>
       </c>
       <c r="Q7" t="n">
-        <v>21.38658590694733</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="R7" t="n">
-        <v>21.38658590694733</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="S7" t="n">
-        <v>21.38658590694733</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="T7" t="n">
-        <v>21.38658590694733</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="U7" t="n">
-        <v>21.38658590694733</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="V7" t="n">
-        <v>21.38658590694733</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="W7" t="n">
-        <v>21.38658590694733</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="X7" t="n">
-        <v>21.38658590694733</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="Y7" t="n">
-        <v>21.38658590694733</v>
+        <v>13.6131814684388</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>236.479025024022</v>
+        <v>250.123748672568</v>
       </c>
       <c r="C8" t="n">
-        <v>236.479025024022</v>
+        <v>250.123748672568</v>
       </c>
       <c r="D8" t="n">
-        <v>236.479025024022</v>
+        <v>250.123748672568</v>
       </c>
       <c r="E8" t="n">
-        <v>236.479025024022</v>
+        <v>250.123748672568</v>
       </c>
       <c r="F8" t="n">
-        <v>229.5335242748185</v>
+        <v>243.1782479233646</v>
       </c>
       <c r="G8" t="n">
-        <v>119.1384087136323</v>
+        <v>229.533524274817</v>
       </c>
       <c r="H8" t="n">
-        <v>8.743293152445956</v>
+        <v>119.1384087136314</v>
       </c>
       <c r="I8" t="n">
-        <v>8.743293152445956</v>
+        <v>8.743293152445894</v>
       </c>
       <c r="J8" t="n">
-        <v>8.743293152445956</v>
+        <v>8.743293152445894</v>
       </c>
       <c r="K8" t="n">
-        <v>16.83390034252455</v>
+        <v>16.83390034252401</v>
       </c>
       <c r="L8" t="n">
-        <v>63.77277584018212</v>
+        <v>63.77277584018103</v>
       </c>
       <c r="M8" t="n">
-        <v>147.670756428482</v>
+        <v>147.6707564284802</v>
       </c>
       <c r="N8" t="n">
-        <v>237.5401024341717</v>
+        <v>255.8690091899982</v>
       </c>
       <c r="O8" t="n">
-        <v>345.7383551956904</v>
+        <v>327.3948229810981</v>
       </c>
       <c r="P8" t="n">
-        <v>372.2829815992528</v>
+        <v>353.9394493846599</v>
       </c>
       <c r="Q8" t="n">
-        <v>437.1646576222977</v>
+        <v>437.1646576222947</v>
       </c>
       <c r="R8" t="n">
-        <v>437.1646576222977</v>
+        <v>399.6416266371969</v>
       </c>
       <c r="S8" t="n">
-        <v>437.1646576222977</v>
+        <v>289.2465110760113</v>
       </c>
       <c r="T8" t="n">
-        <v>437.1646576222977</v>
+        <v>289.2465110760113</v>
       </c>
       <c r="U8" t="n">
-        <v>437.1646576222977</v>
+        <v>289.2465110760113</v>
       </c>
       <c r="V8" t="n">
-        <v>437.1646576222977</v>
+        <v>289.2465110760113</v>
       </c>
       <c r="W8" t="n">
-        <v>326.7695420611115</v>
+        <v>289.2465110760113</v>
       </c>
       <c r="X8" t="n">
-        <v>326.7695420611115</v>
+        <v>289.2465110760113</v>
       </c>
       <c r="Y8" t="n">
-        <v>236.479025024022</v>
+        <v>289.2465110760113</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>175.4187797911006</v>
+        <v>229.533524274817</v>
       </c>
       <c r="C9" t="n">
-        <v>175.4187797911006</v>
+        <v>229.533524274817</v>
       </c>
       <c r="D9" t="n">
-        <v>65.02366422991427</v>
+        <v>119.1384087136314</v>
       </c>
       <c r="E9" t="n">
-        <v>65.02366422991427</v>
+        <v>119.1384087136314</v>
       </c>
       <c r="F9" t="n">
-        <v>65.02366422991427</v>
+        <v>119.1384087136314</v>
       </c>
       <c r="G9" t="n">
-        <v>8.743293152445956</v>
+        <v>8.743293152445894</v>
       </c>
       <c r="H9" t="n">
-        <v>8.743293152445956</v>
+        <v>8.743293152445894</v>
       </c>
       <c r="I9" t="n">
-        <v>8.743293152445956</v>
+        <v>8.743293152445894</v>
       </c>
       <c r="J9" t="n">
-        <v>8.743293152445956</v>
+        <v>8.743293152445894</v>
       </c>
       <c r="K9" t="n">
-        <v>25.76842340056413</v>
+        <v>25.76842340056362</v>
       </c>
       <c r="L9" t="n">
-        <v>94.98335320588245</v>
+        <v>94.98335320588149</v>
       </c>
       <c r="M9" t="n">
-        <v>195.1107798036264</v>
+        <v>195.1107798036248</v>
       </c>
       <c r="N9" t="n">
-        <v>303.3090325651451</v>
+        <v>303.3090325651428</v>
       </c>
       <c r="O9" t="n">
-        <v>388.291667294137</v>
+        <v>388.2916672941344</v>
       </c>
       <c r="P9" t="n">
-        <v>437.1646576222977</v>
+        <v>437.1646576222947</v>
       </c>
       <c r="Q9" t="n">
-        <v>437.1646576222977</v>
+        <v>437.1646576222947</v>
       </c>
       <c r="R9" t="n">
-        <v>396.2090109134732</v>
+        <v>437.1646576222947</v>
       </c>
       <c r="S9" t="n">
-        <v>396.2090109134732</v>
+        <v>437.1646576222947</v>
       </c>
       <c r="T9" t="n">
-        <v>285.8138953522869</v>
+        <v>437.1646576222947</v>
       </c>
       <c r="U9" t="n">
-        <v>175.4187797911006</v>
+        <v>437.1646576222947</v>
       </c>
       <c r="V9" t="n">
-        <v>175.4187797911006</v>
+        <v>437.1646576222947</v>
       </c>
       <c r="W9" t="n">
-        <v>175.4187797911006</v>
+        <v>437.1646576222947</v>
       </c>
       <c r="X9" t="n">
-        <v>175.4187797911006</v>
+        <v>326.7695420611091</v>
       </c>
       <c r="Y9" t="n">
-        <v>175.4187797911006</v>
+        <v>229.533524274817</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>155.9569778884261</v>
+        <v>87.0299764499526</v>
       </c>
       <c r="C10" t="n">
-        <v>155.9569778884261</v>
+        <v>87.0299764499526</v>
       </c>
       <c r="D10" t="n">
-        <v>155.9569778884261</v>
+        <v>87.0299764499526</v>
       </c>
       <c r="E10" t="n">
-        <v>155.9569778884261</v>
+        <v>8.743293152445894</v>
       </c>
       <c r="F10" t="n">
-        <v>155.9569778884261</v>
+        <v>8.743293152445894</v>
       </c>
       <c r="G10" t="n">
-        <v>155.9569778884261</v>
+        <v>8.743293152445894</v>
       </c>
       <c r="H10" t="n">
-        <v>155.9569778884261</v>
+        <v>8.743293152445894</v>
       </c>
       <c r="I10" t="n">
-        <v>45.56186232723982</v>
+        <v>8.743293152445894</v>
       </c>
       <c r="J10" t="n">
-        <v>8.743293152445956</v>
+        <v>8.743293152445894</v>
       </c>
       <c r="K10" t="n">
-        <v>79.27994445981146</v>
+        <v>79.27994445981119</v>
       </c>
       <c r="L10" t="n">
-        <v>79.27994445981146</v>
+        <v>187.4781972213291</v>
       </c>
       <c r="M10" t="n">
-        <v>187.4781972213302</v>
+        <v>295.6764499828471</v>
       </c>
       <c r="N10" t="n">
-        <v>295.6764499828489</v>
+        <v>403.874702744365</v>
       </c>
       <c r="O10" t="n">
-        <v>343.4793694702237</v>
+        <v>403.874702744365</v>
       </c>
       <c r="P10" t="n">
-        <v>437.1646576222977</v>
+        <v>437.1646576222947</v>
       </c>
       <c r="Q10" t="n">
-        <v>437.1646576222977</v>
+        <v>418.2153231335092</v>
       </c>
       <c r="R10" t="n">
-        <v>437.1646576222977</v>
+        <v>418.2153231335092</v>
       </c>
       <c r="S10" t="n">
-        <v>437.1646576222977</v>
+        <v>418.2153231335092</v>
       </c>
       <c r="T10" t="n">
-        <v>437.1646576222977</v>
+        <v>418.2153231335092</v>
       </c>
       <c r="U10" t="n">
-        <v>326.7695420611115</v>
+        <v>418.2153231335092</v>
       </c>
       <c r="V10" t="n">
-        <v>266.3520934496124</v>
+        <v>307.8202075723237</v>
       </c>
       <c r="W10" t="n">
-        <v>155.9569778884261</v>
+        <v>197.4250920111381</v>
       </c>
       <c r="X10" t="n">
-        <v>155.9569778884261</v>
+        <v>197.4250920111381</v>
       </c>
       <c r="Y10" t="n">
-        <v>155.9569778884261</v>
+        <v>87.0299764499526</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1866.026662509058</v>
+        <v>1914.559152968996</v>
       </c>
       <c r="C11" t="n">
-        <v>1866.026662509058</v>
+        <v>1545.596636028584</v>
       </c>
       <c r="D11" t="n">
-        <v>1507.760963902308</v>
+        <v>1187.330937421834</v>
       </c>
       <c r="E11" t="n">
-        <v>1121.972711304064</v>
+        <v>801.5426848235895</v>
       </c>
       <c r="F11" t="n">
         <v>801.5426848235895</v>
       </c>
       <c r="G11" t="n">
-        <v>387.2352036347372</v>
+        <v>387.2352036347373</v>
       </c>
       <c r="H11" t="n">
-        <v>97.48584166810102</v>
+        <v>97.48584166810105</v>
       </c>
       <c r="I11" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J11" t="n">
-        <v>337.493301607683</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K11" t="n">
-        <v>766.6831886951436</v>
+        <v>766.6831886951445</v>
       </c>
       <c r="L11" t="n">
-        <v>1336.032957050962</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M11" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N11" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O11" t="n">
-        <v>3311.067850233286</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P11" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q11" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767229</v>
       </c>
       <c r="R11" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755812</v>
       </c>
       <c r="S11" t="n">
-        <v>4156.161510599079</v>
+        <v>4156.16151059908</v>
       </c>
       <c r="T11" t="n">
-        <v>3953.532414632628</v>
+        <v>3953.532414632629</v>
       </c>
       <c r="U11" t="n">
-        <v>3700.063135423757</v>
+        <v>3748.595625883695</v>
       </c>
       <c r="V11" t="n">
-        <v>3369.000248080186</v>
+        <v>3417.532738540124</v>
       </c>
       <c r="W11" t="n">
-        <v>3016.231592810072</v>
+        <v>3064.764083270009</v>
       </c>
       <c r="X11" t="n">
-        <v>2642.765834548992</v>
+        <v>2691.29832500893</v>
       </c>
       <c r="Y11" t="n">
-        <v>2252.62650257318</v>
+        <v>2301.158993033118</v>
       </c>
     </row>
     <row r="12">
@@ -5112,13 +5112,13 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H12" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I12" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J12" t="n">
-        <v>216.5575109835859</v>
+        <v>216.557510983586</v>
       </c>
       <c r="K12" t="n">
         <v>519.5985603334505</v>
@@ -5127,19 +5127,19 @@
         <v>973.3971899277778</v>
       </c>
       <c r="M12" t="n">
-        <v>1522.315654538067</v>
+        <v>1357.07436680343</v>
       </c>
       <c r="N12" t="n">
-        <v>1522.315654538067</v>
+        <v>1934.929714729833</v>
       </c>
       <c r="O12" t="n">
-        <v>1959.694692760353</v>
+        <v>1934.929714729833</v>
       </c>
       <c r="P12" t="n">
-        <v>2346.796248312508</v>
+        <v>2322.031270281988</v>
       </c>
       <c r="Q12" t="n">
-        <v>2555.644190323788</v>
+        <v>2530.879212293268</v>
       </c>
       <c r="R12" t="n">
         <v>2555.644190323788</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>785.8428317358079</v>
+        <v>988.0471530141857</v>
       </c>
       <c r="C13" t="n">
-        <v>616.906648807901</v>
+        <v>819.1109700862788</v>
       </c>
       <c r="D13" t="n">
-        <v>466.7900093955652</v>
+        <v>668.9943306739431</v>
       </c>
       <c r="E13" t="n">
-        <v>318.8769158131721</v>
+        <v>542.3964257657093</v>
       </c>
       <c r="F13" t="n">
-        <v>171.9869683152617</v>
+        <v>395.5064782677989</v>
       </c>
       <c r="G13" t="n">
-        <v>171.9869683152617</v>
+        <v>228.1467803857361</v>
       </c>
       <c r="H13" t="n">
-        <v>171.9869683152617</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="I13" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J13" t="n">
         <v>153.8801783755867</v>
       </c>
       <c r="K13" t="n">
-        <v>396.9405013869777</v>
+        <v>396.9405013869778</v>
       </c>
       <c r="L13" t="n">
-        <v>763.5004667042034</v>
+        <v>763.5004667042035</v>
       </c>
       <c r="M13" t="n">
         <v>1160.375677726126</v>
@@ -5221,28 +5221,28 @@
         <v>2279.168624967671</v>
       </c>
       <c r="R13" t="n">
-        <v>2204.76693339754</v>
+        <v>2279.168624967671</v>
       </c>
       <c r="S13" t="n">
-        <v>2020.977582188527</v>
+        <v>2093.462713255856</v>
       </c>
       <c r="T13" t="n">
-        <v>1800.677105024531</v>
+        <v>1873.16223609186</v>
       </c>
       <c r="U13" t="n">
-        <v>1511.592954808895</v>
+        <v>1873.16223609186</v>
       </c>
       <c r="V13" t="n">
-        <v>1256.908466603008</v>
+        <v>1618.477747885973</v>
       </c>
       <c r="W13" t="n">
-        <v>967.4912965660476</v>
+        <v>1618.477747885973</v>
       </c>
       <c r="X13" t="n">
-        <v>967.4912965660476</v>
+        <v>1390.488196987955</v>
       </c>
       <c r="Y13" t="n">
-        <v>967.4912965660476</v>
+        <v>1169.695617844425</v>
       </c>
     </row>
     <row r="14">
@@ -5252,43 +5252,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2325.545057758603</v>
+        <v>1958.885600665791</v>
       </c>
       <c r="C14" t="n">
-        <v>1956.582540818192</v>
+        <v>1589.923083725379</v>
       </c>
       <c r="D14" t="n">
-        <v>1598.316842211441</v>
+        <v>1231.657385118629</v>
       </c>
       <c r="E14" t="n">
-        <v>1212.528589613197</v>
+        <v>1200.023156920212</v>
       </c>
       <c r="F14" t="n">
-        <v>801.5426848235895</v>
+        <v>789.0372521306047</v>
       </c>
       <c r="G14" t="n">
-        <v>387.2352036347373</v>
+        <v>374.7297709417525</v>
       </c>
       <c r="H14" t="n">
-        <v>97.48584166810105</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I14" t="n">
         <v>84.98040897511622</v>
       </c>
       <c r="J14" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076837</v>
       </c>
       <c r="K14" t="n">
-        <v>766.6831886951452</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L14" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050962</v>
       </c>
       <c r="M14" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N14" t="n">
-        <v>2681.771598889756</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O14" t="n">
         <v>3311.067850233288</v>
@@ -5303,25 +5303,25 @@
         <v>4249.020448755811</v>
       </c>
       <c r="S14" t="n">
-        <v>4156.161510599079</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="T14" t="n">
-        <v>3953.532414632628</v>
+        <v>4046.391352789361</v>
       </c>
       <c r="U14" t="n">
-        <v>3700.063135423757</v>
+        <v>3792.922073580489</v>
       </c>
       <c r="V14" t="n">
-        <v>3700.063135423757</v>
+        <v>3461.859186236919</v>
       </c>
       <c r="W14" t="n">
-        <v>3347.294480153642</v>
+        <v>3109.090530966804</v>
       </c>
       <c r="X14" t="n">
-        <v>3102.284229798537</v>
+        <v>2735.624772705724</v>
       </c>
       <c r="Y14" t="n">
-        <v>2712.144897822725</v>
+        <v>2345.485440729913</v>
       </c>
     </row>
     <row r="15">
@@ -5364,19 +5364,19 @@
         <v>973.3971899277776</v>
       </c>
       <c r="M15" t="n">
-        <v>1453.289737812102</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N15" t="n">
-        <v>1453.289737812102</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="O15" t="n">
-        <v>1959.694692760353</v>
+        <v>1934.929714729833</v>
       </c>
       <c r="P15" t="n">
-        <v>2346.796248312508</v>
+        <v>2322.031270281989</v>
       </c>
       <c r="Q15" t="n">
-        <v>2555.644190323788</v>
+        <v>2530.879212293269</v>
       </c>
       <c r="R15" t="n">
         <v>2555.644190323788</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>630.9794701516988</v>
+        <v>783.9262712330059</v>
       </c>
       <c r="C16" t="n">
-        <v>462.0432872237919</v>
+        <v>614.990088305099</v>
       </c>
       <c r="D16" t="n">
-        <v>462.0432872237919</v>
+        <v>464.8734488927632</v>
       </c>
       <c r="E16" t="n">
-        <v>462.0432872237919</v>
+        <v>316.9603553103701</v>
       </c>
       <c r="F16" t="n">
-        <v>315.1533397258816</v>
+        <v>316.9603553103701</v>
       </c>
       <c r="G16" t="n">
         <v>315.1533397258816</v>
@@ -5461,25 +5461,25 @@
         <v>2204.76693339754</v>
       </c>
       <c r="S16" t="n">
-        <v>2094.595873481969</v>
+        <v>2019.061021685725</v>
       </c>
       <c r="T16" t="n">
-        <v>2094.595873481969</v>
+        <v>1798.760544521729</v>
       </c>
       <c r="U16" t="n">
-        <v>1805.511723266334</v>
+        <v>1509.676394306093</v>
       </c>
       <c r="V16" t="n">
-        <v>1550.827235060447</v>
+        <v>1254.991906100206</v>
       </c>
       <c r="W16" t="n">
-        <v>1261.410065023486</v>
+        <v>965.5747360632456</v>
       </c>
       <c r="X16" t="n">
-        <v>1033.420514125469</v>
+        <v>965.5747360632456</v>
       </c>
       <c r="Y16" t="n">
-        <v>812.6279349819386</v>
+        <v>965.5747360632456</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112808</v>
       </c>
       <c r="C17" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497865</v>
       </c>
       <c r="D17" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216584</v>
       </c>
       <c r="E17" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943808</v>
       </c>
       <c r="F17" t="n">
-        <v>725.1782574796674</v>
+        <v>725.1782574796691</v>
       </c>
       <c r="G17" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162839</v>
       </c>
       <c r="H17" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="I17" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J17" t="n">
         <v>337.4933016076836</v>
       </c>
       <c r="K17" t="n">
-        <v>766.683188695145</v>
+        <v>766.6831886951448</v>
       </c>
       <c r="L17" t="n">
         <v>1336.032957050963</v>
       </c>
       <c r="M17" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746741</v>
       </c>
       <c r="N17" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889757</v>
       </c>
       <c r="O17" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233289</v>
       </c>
       <c r="P17" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612705</v>
       </c>
       <c r="Q17" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.90714476723</v>
       </c>
       <c r="R17" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755813</v>
       </c>
       <c r="S17" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924549</v>
       </c>
       <c r="T17" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283567</v>
       </c>
       <c r="U17" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400164</v>
       </c>
       <c r="V17" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382061</v>
       </c>
       <c r="W17" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437416</v>
       </c>
       <c r="X17" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501805</v>
       </c>
       <c r="Y17" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851462</v>
       </c>
     </row>
     <row r="18">
@@ -5586,34 +5586,34 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H18" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177182</v>
       </c>
       <c r="I18" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J18" t="n">
-        <v>216.5575109835859</v>
+        <v>140.8607658641353</v>
       </c>
       <c r="K18" t="n">
-        <v>519.5985603334505</v>
+        <v>443.9018152139996</v>
       </c>
       <c r="L18" t="n">
-        <v>973.3971899277778</v>
+        <v>897.700444808327</v>
       </c>
       <c r="M18" t="n">
-        <v>1381.83934483395</v>
+        <v>1446.618909418616</v>
       </c>
       <c r="N18" t="n">
-        <v>1959.694692760353</v>
+        <v>2024.474257345018</v>
       </c>
       <c r="O18" t="n">
-        <v>1959.694692760353</v>
+        <v>2530.879212293269</v>
       </c>
       <c r="P18" t="n">
-        <v>2346.796248312508</v>
+        <v>2530.879212293269</v>
       </c>
       <c r="Q18" t="n">
-        <v>2555.644190323788</v>
+        <v>2530.879212293269</v>
       </c>
       <c r="R18" t="n">
         <v>2555.644190323788</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>872.8624197502099</v>
+        <v>872.8624197502104</v>
       </c>
       <c r="C19" t="n">
-        <v>735.8557341477717</v>
+        <v>735.8557341477722</v>
       </c>
       <c r="D19" t="n">
-        <v>617.6685920609046</v>
+        <v>617.6685920609051</v>
       </c>
       <c r="E19" t="n">
-        <v>501.6849958039802</v>
+        <v>501.6849958039807</v>
       </c>
       <c r="F19" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315389</v>
       </c>
       <c r="G19" t="n">
-        <v>251.2943450749443</v>
+        <v>251.2943450749448</v>
       </c>
       <c r="H19" t="n">
-        <v>140.0574709897931</v>
+        <v>140.0574709897936</v>
       </c>
       <c r="I19" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J19" t="n">
         <v>185.1742787042785</v>
       </c>
       <c r="K19" t="n">
-        <v>459.5287020443611</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L19" t="n">
-        <v>857.3827676902786</v>
+        <v>857.3827676902787</v>
       </c>
       <c r="M19" t="n">
         <v>1285.552079040893</v>
@@ -5686,10 +5686,10 @@
         <v>1709.719201354973</v>
       </c>
       <c r="O19" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P19" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q19" t="n">
         <v>2529.521427597205</v>
@@ -5701,19 +5701,19 @@
         <v>2333.272818966196</v>
       </c>
       <c r="T19" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U19" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V19" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W19" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X19" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y19" t="n">
         <v>1022.581387254981</v>
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112806</v>
       </c>
       <c r="C20" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497863</v>
       </c>
       <c r="D20" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216581</v>
       </c>
       <c r="E20" t="n">
         <v>1104.234664943806</v>
       </c>
       <c r="F20" t="n">
-        <v>725.1782574796675</v>
+        <v>725.1782574796667</v>
       </c>
       <c r="G20" t="n">
         <v>342.8002736162838</v>
@@ -5753,13 +5753,13 @@
         <v>337.4933016076836</v>
       </c>
       <c r="K20" t="n">
-        <v>766.683188695145</v>
+        <v>766.6831886951447</v>
       </c>
       <c r="L20" t="n">
         <v>1336.032957050963</v>
       </c>
       <c r="M20" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N20" t="n">
         <v>2681.771598889755</v>
@@ -5783,19 +5783,19 @@
         <v>4017.391409283565</v>
       </c>
       <c r="U20" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400161</v>
       </c>
       <c r="V20" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382059</v>
       </c>
       <c r="W20" t="n">
-        <v>3175.879079437415</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X20" t="n">
-        <v>2834.342818501804</v>
+        <v>2834.342818501802</v>
       </c>
       <c r="Y20" t="n">
-        <v>2476.132983851461</v>
+        <v>2476.132983851459</v>
       </c>
     </row>
     <row r="21">
@@ -5823,7 +5823,7 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H21" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I21" t="n">
         <v>84.98040897511622</v>
@@ -5832,22 +5832,22 @@
         <v>216.5575109835859</v>
       </c>
       <c r="K21" t="n">
-        <v>519.5985603334505</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L21" t="n">
-        <v>973.3971899277778</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M21" t="n">
-        <v>973.3971899277778</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N21" t="n">
-        <v>1453.289737812102</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O21" t="n">
-        <v>1959.694692760353</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="P21" t="n">
-        <v>2346.796248312508</v>
+        <v>2487.272558016625</v>
       </c>
       <c r="Q21" t="n">
         <v>2555.644190323788</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>872.8624197502104</v>
+        <v>872.8624197502099</v>
       </c>
       <c r="C22" t="n">
-        <v>735.8557341477722</v>
+        <v>735.8557341477717</v>
       </c>
       <c r="D22" t="n">
-        <v>617.6685920609051</v>
+        <v>617.6685920609046</v>
       </c>
       <c r="E22" t="n">
-        <v>501.6849958039806</v>
+        <v>501.6849958039802</v>
       </c>
       <c r="F22" t="n">
         <v>386.7245456315385</v>
       </c>
       <c r="G22" t="n">
-        <v>251.2943450749444</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H22" t="n">
         <v>140.0574709897931</v>
@@ -5908,49 +5908,49 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J22" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K22" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L22" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M22" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N22" t="n">
         <v>1709.719201354973</v>
       </c>
       <c r="O22" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P22" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q22" t="n">
         <v>2529.521427597205</v>
       </c>
       <c r="R22" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S22" t="n">
         <v>2333.272818966196</v>
       </c>
       <c r="T22" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U22" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V22" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W22" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X22" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y22" t="n">
         <v>1022.581387254981</v>
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2121.462641112806</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C23" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D23" t="n">
-        <v>1458.093420216581</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E23" t="n">
-        <v>1104.234664943805</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F23" t="n">
-        <v>725.1782574796666</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G23" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162839</v>
       </c>
       <c r="H23" t="n">
         <v>84.98040897511622</v>
@@ -5990,16 +5990,16 @@
         <v>337.4933016076836</v>
       </c>
       <c r="K23" t="n">
-        <v>766.6831886951452</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L23" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050962</v>
       </c>
       <c r="M23" t="n">
         <v>2001.213713746738</v>
       </c>
       <c r="N23" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O23" t="n">
         <v>3311.067850233287</v>
@@ -6014,25 +6014,25 @@
         <v>4249.020448755811</v>
       </c>
       <c r="S23" t="n">
-        <v>4188.091007924546</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T23" t="n">
-        <v>4017.391409283564</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U23" t="n">
-        <v>3795.851627400161</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V23" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W23" t="n">
         <v>3175.879079437414</v>
       </c>
       <c r="X23" t="n">
-        <v>2834.342818501802</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y23" t="n">
-        <v>2476.132983851459</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="24">
@@ -6081,7 +6081,7 @@
         <v>2100.171002464469</v>
       </c>
       <c r="O24" t="n">
-        <v>2555.644190323788</v>
+        <v>2168.542634771632</v>
       </c>
       <c r="P24" t="n">
         <v>2555.644190323788</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>872.8624197502099</v>
+        <v>872.8624197502101</v>
       </c>
       <c r="C25" t="n">
         <v>735.8557341477717</v>
       </c>
       <c r="D25" t="n">
-        <v>617.6685920609046</v>
+        <v>617.6685920609045</v>
       </c>
       <c r="E25" t="n">
-        <v>501.6849958039802</v>
+        <v>501.68499580398</v>
       </c>
       <c r="F25" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315382</v>
       </c>
       <c r="G25" t="n">
-        <v>251.2943450749444</v>
+        <v>251.2943450749439</v>
       </c>
       <c r="H25" t="n">
-        <v>140.0574709897931</v>
+        <v>140.0574709897926</v>
       </c>
       <c r="I25" t="n">
         <v>84.98040897511622</v>
       </c>
       <c r="J25" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K25" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443614</v>
       </c>
       <c r="L25" t="n">
-        <v>857.3827676902785</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M25" t="n">
         <v>1285.552079040893</v>
@@ -6160,10 +6160,10 @@
         <v>1709.719201354973</v>
       </c>
       <c r="O25" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P25" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q25" t="n">
         <v>2529.521427597205</v>
@@ -6178,7 +6178,7 @@
         <v>2144.901839127668</v>
       </c>
       <c r="U25" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V25" t="n">
         <v>1664.992195357083</v>
@@ -6187,7 +6187,7 @@
         <v>1407.504522645591</v>
       </c>
       <c r="X25" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y25" t="n">
         <v>1022.581387254981</v>
@@ -6203,19 +6203,19 @@
         <v>2121.462641112807</v>
       </c>
       <c r="C26" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497863</v>
       </c>
       <c r="D26" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216581</v>
       </c>
       <c r="E26" t="n">
         <v>1104.234664943806</v>
       </c>
       <c r="F26" t="n">
-        <v>725.1782574796675</v>
+        <v>725.1782574796666</v>
       </c>
       <c r="G26" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162839</v>
       </c>
       <c r="H26" t="n">
         <v>84.98040897511622</v>
@@ -6254,7 +6254,7 @@
         <v>4188.091007924547</v>
       </c>
       <c r="T26" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283564</v>
       </c>
       <c r="U26" t="n">
         <v>3795.851627400162</v>
@@ -6263,13 +6263,13 @@
         <v>3496.71823738206</v>
       </c>
       <c r="W26" t="n">
-        <v>3175.879079437415</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X26" t="n">
-        <v>2834.342818501804</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y26" t="n">
-        <v>2476.132983851461</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="27">
@@ -6318,13 +6318,13 @@
         <v>2100.171002464469</v>
       </c>
       <c r="O27" t="n">
-        <v>2143.777656741112</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P27" t="n">
-        <v>2530.879212293268</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q27" t="n">
-        <v>2530.879212293268</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R27" t="n">
         <v>2555.644190323788</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>872.8624197502099</v>
+        <v>872.8624197502097</v>
       </c>
       <c r="C28" t="n">
-        <v>735.8557341477717</v>
+        <v>735.8557341477714</v>
       </c>
       <c r="D28" t="n">
-        <v>617.6685920609046</v>
+        <v>617.6685920609043</v>
       </c>
       <c r="E28" t="n">
-        <v>501.6849958039802</v>
+        <v>501.6849958039797</v>
       </c>
       <c r="F28" t="n">
-        <v>386.7245456315385</v>
+        <v>386.724545631538</v>
       </c>
       <c r="G28" t="n">
         <v>251.2943450749444</v>
       </c>
       <c r="H28" t="n">
-        <v>140.0574709897931</v>
+        <v>140.0574709897932</v>
       </c>
       <c r="I28" t="n">
         <v>84.98040897511622</v>
@@ -6385,22 +6385,22 @@
         <v>185.1742787042785</v>
       </c>
       <c r="K28" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443613</v>
       </c>
       <c r="L28" t="n">
         <v>857.3827676902788</v>
       </c>
       <c r="M28" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N28" t="n">
         <v>1709.719201354973</v>
       </c>
       <c r="O28" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P28" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q28" t="n">
         <v>2529.521427597205</v>
@@ -6446,13 +6446,13 @@
         <v>1458.093420216582</v>
       </c>
       <c r="E29" t="n">
-        <v>1104.234664943807</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F29" t="n">
-        <v>725.1782574796675</v>
+        <v>725.1782574796671</v>
       </c>
       <c r="G29" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162839</v>
       </c>
       <c r="H29" t="n">
         <v>84.98040897511625</v>
@@ -6464,19 +6464,19 @@
         <v>337.4933016076839</v>
       </c>
       <c r="K29" t="n">
-        <v>766.6831886951445</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L29" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050964</v>
       </c>
       <c r="M29" t="n">
         <v>2001.213713746739</v>
       </c>
       <c r="N29" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889756</v>
       </c>
       <c r="O29" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P29" t="n">
         <v>3813.656640612704</v>
@@ -6491,22 +6491,22 @@
         <v>4188.091007924548</v>
       </c>
       <c r="T29" t="n">
-        <v>4017.391409283566</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U29" t="n">
-        <v>3795.851627400163</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V29" t="n">
-        <v>3496.718237382061</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W29" t="n">
-        <v>3175.879079437415</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X29" t="n">
-        <v>2834.342818501804</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y29" t="n">
-        <v>2476.132983851461</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="30">
@@ -6543,25 +6543,25 @@
         <v>216.557510983586</v>
       </c>
       <c r="K30" t="n">
-        <v>301.7509472448909</v>
+        <v>519.5985603334505</v>
       </c>
       <c r="L30" t="n">
-        <v>301.7509472448909</v>
+        <v>973.3971899277778</v>
       </c>
       <c r="M30" t="n">
-        <v>850.66941185518</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N30" t="n">
-        <v>1428.524759781582</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O30" t="n">
-        <v>1934.929714729833</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P30" t="n">
-        <v>2322.031270281988</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q30" t="n">
-        <v>2530.879212293268</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R30" t="n">
         <v>2555.644190323788</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>872.8624197502099</v>
+        <v>872.8624197502106</v>
       </c>
       <c r="C31" t="n">
-        <v>735.8557341477717</v>
+        <v>735.8557341477723</v>
       </c>
       <c r="D31" t="n">
-        <v>617.6685920609046</v>
+        <v>617.6685920609051</v>
       </c>
       <c r="E31" t="n">
-        <v>501.6849958039802</v>
+        <v>501.6849958039805</v>
       </c>
       <c r="F31" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315388</v>
       </c>
       <c r="G31" t="n">
-        <v>251.2943450749444</v>
+        <v>251.2943450749445</v>
       </c>
       <c r="H31" t="n">
-        <v>140.0574709897931</v>
+        <v>140.0574709897932</v>
       </c>
       <c r="I31" t="n">
         <v>84.98040897511625</v>
       </c>
       <c r="J31" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K31" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L31" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M31" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N31" t="n">
-        <v>1709.719201354974</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O31" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P31" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q31" t="n">
-        <v>2529.521427597206</v>
+        <v>2529.521427597204</v>
       </c>
       <c r="R31" t="n">
-        <v>2487.049233352544</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S31" t="n">
         <v>2333.272818966197</v>
       </c>
       <c r="T31" t="n">
-        <v>2144.90183912767</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U31" t="n">
-        <v>1887.747186237503</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V31" t="n">
         <v>1664.992195357084</v>
       </c>
       <c r="W31" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X31" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y31" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.581387254982</v>
       </c>
     </row>
     <row r="32">
@@ -6680,19 +6680,19 @@
         <v>1784.429621497864</v>
       </c>
       <c r="D32" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216583</v>
       </c>
       <c r="E32" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943807</v>
       </c>
       <c r="F32" t="n">
-        <v>725.1782574796675</v>
+        <v>725.1782574796682</v>
       </c>
       <c r="G32" t="n">
-        <v>342.8002736162839</v>
+        <v>342.8002736162846</v>
       </c>
       <c r="H32" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511697</v>
       </c>
       <c r="I32" t="n">
         <v>84.98040897511625</v>
@@ -6701,13 +6701,13 @@
         <v>337.4933016076839</v>
       </c>
       <c r="K32" t="n">
-        <v>766.6831886951454</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L32" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050965</v>
       </c>
       <c r="M32" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.21371374674</v>
       </c>
       <c r="N32" t="n">
         <v>2681.771598889756</v>
@@ -6716,7 +6716,7 @@
         <v>3311.067850233288</v>
       </c>
       <c r="P32" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612705</v>
       </c>
       <c r="Q32" t="n">
         <v>4142.907144767229</v>
@@ -6740,10 +6740,10 @@
         <v>3175.879079437415</v>
       </c>
       <c r="X32" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501804</v>
       </c>
       <c r="Y32" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851461</v>
       </c>
     </row>
     <row r="33">
@@ -6789,13 +6789,13 @@
         <v>1522.315654538067</v>
       </c>
       <c r="N33" t="n">
-        <v>1959.694692760353</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O33" t="n">
-        <v>1959.694692760353</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P33" t="n">
-        <v>2346.796248312508</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q33" t="n">
         <v>2555.644190323788</v>
@@ -6835,16 +6835,16 @@
         <v>872.8624197502099</v>
       </c>
       <c r="C34" t="n">
-        <v>735.8557341477716</v>
+        <v>735.8557341477717</v>
       </c>
       <c r="D34" t="n">
-        <v>617.6685920609045</v>
+        <v>617.6685920609046</v>
       </c>
       <c r="E34" t="n">
-        <v>501.68499580398</v>
+        <v>501.6849958039802</v>
       </c>
       <c r="F34" t="n">
-        <v>386.7245456315383</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G34" t="n">
         <v>251.2943450749444</v>
@@ -6856,19 +6856,19 @@
         <v>84.98040897511625</v>
       </c>
       <c r="J34" t="n">
-        <v>185.174278704279</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K34" t="n">
-        <v>459.5287020443618</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L34" t="n">
-        <v>857.382767690279</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M34" t="n">
         <v>1285.552079040894</v>
       </c>
       <c r="N34" t="n">
-        <v>1709.719201354974</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O34" t="n">
         <v>2087.878830313936</v>
@@ -6877,19 +6877,19 @@
         <v>2392.455631028689</v>
       </c>
       <c r="Q34" t="n">
-        <v>2529.521427597206</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R34" t="n">
-        <v>2487.049233352544</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S34" t="n">
         <v>2333.272818966196</v>
       </c>
       <c r="T34" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U34" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V34" t="n">
         <v>1664.992195357083</v>
@@ -6898,7 +6898,7 @@
         <v>1407.504522645591</v>
       </c>
       <c r="X34" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y34" t="n">
         <v>1022.581387254981</v>
@@ -6926,7 +6926,7 @@
         <v>725.1782574796675</v>
       </c>
       <c r="G35" t="n">
-        <v>342.8002736162839</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H35" t="n">
         <v>84.98040897511625</v>
@@ -6935,19 +6935,19 @@
         <v>84.98040897511625</v>
       </c>
       <c r="J35" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076843</v>
       </c>
       <c r="K35" t="n">
         <v>766.6831886951454</v>
       </c>
       <c r="L35" t="n">
-        <v>1336.032957050964</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M35" t="n">
         <v>2001.213713746739</v>
       </c>
       <c r="N35" t="n">
-        <v>2681.771598889756</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O35" t="n">
         <v>3311.067850233288</v>
@@ -6974,7 +6974,7 @@
         <v>3496.718237382061</v>
       </c>
       <c r="W35" t="n">
-        <v>3175.879079437415</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X35" t="n">
         <v>2834.342818501803</v>
@@ -7069,73 +7069,73 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>872.8624197502104</v>
+        <v>872.8624197502095</v>
       </c>
       <c r="C37" t="n">
-        <v>735.8557341477721</v>
+        <v>735.8557341477713</v>
       </c>
       <c r="D37" t="n">
-        <v>617.668592060905</v>
+        <v>617.6685920609042</v>
       </c>
       <c r="E37" t="n">
-        <v>501.6849958039805</v>
+        <v>501.6849958039797</v>
       </c>
       <c r="F37" t="n">
-        <v>386.7245456315387</v>
+        <v>386.724545631538</v>
       </c>
       <c r="G37" t="n">
-        <v>251.2943450749445</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H37" t="n">
-        <v>140.0574709897933</v>
+        <v>140.0574709897932</v>
       </c>
       <c r="I37" t="n">
         <v>84.98040897511625</v>
       </c>
       <c r="J37" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042778</v>
       </c>
       <c r="K37" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443606</v>
       </c>
       <c r="L37" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902781</v>
       </c>
       <c r="M37" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N37" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354972</v>
       </c>
       <c r="O37" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P37" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q37" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597204</v>
       </c>
       <c r="R37" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S37" t="n">
         <v>2333.272818966196</v>
       </c>
       <c r="T37" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U37" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V37" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W37" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X37" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y37" t="n">
         <v>1022.581387254981</v>
@@ -7163,7 +7163,7 @@
         <v>725.1782574796675</v>
       </c>
       <c r="G38" t="n">
-        <v>342.8002736162839</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H38" t="n">
         <v>84.98040897511625</v>
@@ -7181,7 +7181,7 @@
         <v>1336.032957050963</v>
       </c>
       <c r="M38" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.21371374674</v>
       </c>
       <c r="N38" t="n">
         <v>2681.771598889756</v>
@@ -7190,7 +7190,7 @@
         <v>3311.067850233288</v>
       </c>
       <c r="P38" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612705</v>
       </c>
       <c r="Q38" t="n">
         <v>4142.907144767229</v>
@@ -7205,19 +7205,19 @@
         <v>4017.391409283566</v>
       </c>
       <c r="U38" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400163</v>
       </c>
       <c r="V38" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382061</v>
       </c>
       <c r="W38" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437415</v>
       </c>
       <c r="X38" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501804</v>
       </c>
       <c r="Y38" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851461</v>
       </c>
     </row>
     <row r="39">
@@ -7260,10 +7260,10 @@
         <v>973.3971899277778</v>
       </c>
       <c r="M39" t="n">
-        <v>1471.383887449136</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N39" t="n">
-        <v>2049.239235375538</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O39" t="n">
         <v>2555.644190323788</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>872.8624197502106</v>
+        <v>872.8624197502098</v>
       </c>
       <c r="C40" t="n">
-        <v>735.8557341477723</v>
+        <v>735.8557341477716</v>
       </c>
       <c r="D40" t="n">
-        <v>617.6685920609052</v>
+        <v>617.6685920609045</v>
       </c>
       <c r="E40" t="n">
-        <v>501.6849958039807</v>
+        <v>501.6849958039801</v>
       </c>
       <c r="F40" t="n">
-        <v>386.7245456315389</v>
+        <v>386.7245456315384</v>
       </c>
       <c r="G40" t="n">
         <v>251.2943450749443</v>
       </c>
       <c r="H40" t="n">
-        <v>140.0574709897932</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I40" t="n">
         <v>84.98040897511625</v>
@@ -7333,49 +7333,49 @@
         <v>185.1742787042785</v>
       </c>
       <c r="K40" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443614</v>
       </c>
       <c r="L40" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902775</v>
       </c>
       <c r="M40" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040892</v>
       </c>
       <c r="N40" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354972</v>
       </c>
       <c r="O40" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P40" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q40" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597204</v>
       </c>
       <c r="R40" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S40" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T40" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U40" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V40" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W40" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X40" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y40" t="n">
-        <v>1022.581387254982</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="41">
@@ -7391,28 +7391,28 @@
         <v>1784.429621497864</v>
       </c>
       <c r="D41" t="n">
-        <v>1458.093420216583</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E41" t="n">
-        <v>1104.234664943807</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F41" t="n">
-        <v>725.1782574796682</v>
+        <v>725.1782574796673</v>
       </c>
       <c r="G41" t="n">
-        <v>342.8002736162846</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H41" t="n">
-        <v>84.98040897511697</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I41" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J41" t="n">
-        <v>337.4933016076843</v>
+        <v>337.4933016076836</v>
       </c>
       <c r="K41" t="n">
-        <v>766.6831886951454</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L41" t="n">
         <v>1336.032957050963</v>
@@ -7430,31 +7430,31 @@
         <v>3813.656640612704</v>
       </c>
       <c r="Q41" t="n">
-        <v>4142.907144767229</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R41" t="n">
-        <v>4249.020448755812</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S41" t="n">
-        <v>4188.091007924548</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T41" t="n">
-        <v>4017.391409283566</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U41" t="n">
-        <v>3795.851627400163</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V41" t="n">
-        <v>3496.718237382061</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W41" t="n">
-        <v>3175.879079437415</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X41" t="n">
-        <v>2834.342818501804</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y41" t="n">
-        <v>2476.132983851461</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="42">
@@ -7482,34 +7482,34 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H42" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I42" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J42" t="n">
-        <v>216.557510983586</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K42" t="n">
-        <v>216.557510983586</v>
+        <v>519.5985603334505</v>
       </c>
       <c r="L42" t="n">
-        <v>301.7509472448909</v>
+        <v>973.3971899277778</v>
       </c>
       <c r="M42" t="n">
-        <v>850.66941185518</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N42" t="n">
-        <v>1428.524759781582</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O42" t="n">
-        <v>1934.929714729833</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P42" t="n">
-        <v>2322.031270281988</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q42" t="n">
-        <v>2530.879212293268</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R42" t="n">
         <v>2555.644190323788</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>872.8624197502099</v>
+        <v>872.8624197502103</v>
       </c>
       <c r="C43" t="n">
-        <v>735.8557341477716</v>
+        <v>735.855734147772</v>
       </c>
       <c r="D43" t="n">
-        <v>617.6685920609045</v>
+        <v>617.6685920609049</v>
       </c>
       <c r="E43" t="n">
-        <v>501.6849958039801</v>
+        <v>501.6849958039804</v>
       </c>
       <c r="F43" t="n">
-        <v>386.7245456315384</v>
+        <v>386.7245456315386</v>
       </c>
       <c r="G43" t="n">
-        <v>251.2943450749442</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H43" t="n">
         <v>140.0574709897931</v>
       </c>
       <c r="I43" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J43" t="n">
-        <v>185.1742787042788</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K43" t="n">
-        <v>459.5287020443615</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L43" t="n">
-        <v>857.382767690279</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M43" t="n">
         <v>1285.552079040893</v>
@@ -7588,28 +7588,28 @@
         <v>2392.455631028689</v>
       </c>
       <c r="Q43" t="n">
-        <v>2529.521427597206</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R43" t="n">
-        <v>2487.049233352544</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S43" t="n">
-        <v>2333.272818966197</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T43" t="n">
         <v>2144.901839127669</v>
       </c>
       <c r="U43" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V43" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W43" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X43" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y43" t="n">
         <v>1022.581387254981</v>
@@ -7634,31 +7634,31 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F44" t="n">
-        <v>725.1782574796675</v>
+        <v>725.1782574796671</v>
       </c>
       <c r="G44" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162839</v>
       </c>
       <c r="H44" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I44" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J44" t="n">
-        <v>337.4933016076837</v>
+        <v>337.4933016076836</v>
       </c>
       <c r="K44" t="n">
-        <v>766.6831886951456</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L44" t="n">
-        <v>1336.032957050964</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M44" t="n">
-        <v>2001.21371374674</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N44" t="n">
-        <v>2681.771598889756</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O44" t="n">
         <v>3311.067850233288</v>
@@ -7667,13 +7667,13 @@
         <v>3813.656640612704</v>
       </c>
       <c r="Q44" t="n">
-        <v>4142.907144767229</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R44" t="n">
-        <v>4249.020448755812</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S44" t="n">
-        <v>4188.091007924548</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T44" t="n">
         <v>4017.391409283565</v>
@@ -7719,13 +7719,13 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H45" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I45" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J45" t="n">
-        <v>216.557510983586</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K45" t="n">
         <v>519.5985603334505</v>
@@ -7740,13 +7740,13 @@
         <v>2100.171002464469</v>
       </c>
       <c r="O45" t="n">
-        <v>2322.031270281988</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P45" t="n">
-        <v>2322.031270281988</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q45" t="n">
-        <v>2530.879212293268</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R45" t="n">
         <v>2555.644190323788</v>
@@ -7780,52 +7780,52 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>872.8624197502104</v>
+        <v>872.8624197502098</v>
       </c>
       <c r="C46" t="n">
-        <v>735.8557341477722</v>
+        <v>735.8557341477715</v>
       </c>
       <c r="D46" t="n">
-        <v>617.6685920609051</v>
+        <v>617.6685920609043</v>
       </c>
       <c r="E46" t="n">
-        <v>501.6849958039807</v>
+        <v>501.6849958039798</v>
       </c>
       <c r="F46" t="n">
-        <v>386.7245456315389</v>
+        <v>386.724545631538</v>
       </c>
       <c r="G46" t="n">
-        <v>251.2943450749448</v>
+        <v>251.2943450749439</v>
       </c>
       <c r="H46" t="n">
-        <v>140.0574709897931</v>
+        <v>140.0574709897926</v>
       </c>
       <c r="I46" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J46" t="n">
-        <v>185.1742787042783</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K46" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L46" t="n">
-        <v>857.3827676902787</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M46" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N46" t="n">
-        <v>1709.719201354974</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O46" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P46" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q46" t="n">
-        <v>2529.521427597206</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R46" t="n">
         <v>2487.049233352543</v>
@@ -7834,16 +7834,16 @@
         <v>2333.272818966196</v>
       </c>
       <c r="T46" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U46" t="n">
         <v>1887.747186237502</v>
       </c>
       <c r="V46" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W46" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X46" t="n">
         <v>1211.444469073043</v>
@@ -8213,7 +8213,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>81.3904371773047</v>
+        <v>88.26648291901614</v>
       </c>
       <c r="K5" t="n">
         <v>70.73213850318879</v>
@@ -8222,16 +8222,16 @@
         <v>57.07319116126591</v>
       </c>
       <c r="M5" t="n">
-        <v>24.17379379562163</v>
+        <v>31.04983953733307</v>
       </c>
       <c r="N5" t="n">
         <v>19.9045385482865</v>
       </c>
       <c r="O5" t="n">
-        <v>39.14129792260681</v>
+        <v>32.26525218089537</v>
       </c>
       <c r="P5" t="n">
-        <v>69.26318781224035</v>
+        <v>62.38714207052891</v>
       </c>
       <c r="Q5" t="n">
         <v>102.3855312570331</v>
@@ -8295,7 +8295,7 @@
         <v>67.48351302167279</v>
       </c>
       <c r="K6" t="n">
-        <v>42.99403068267904</v>
+        <v>36.39580497093574</v>
       </c>
       <c r="L6" t="n">
         <v>2.148205693461136</v>
@@ -8310,7 +8310,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>14.00971683006097</v>
+        <v>20.60794254180426</v>
       </c>
       <c r="Q6" t="n">
         <v>59.7885554088987</v>
@@ -8377,7 +8377,7 @@
         <v>67.82165278165036</v>
       </c>
       <c r="L7" t="n">
-        <v>63.17871462758048</v>
+        <v>56.58048891583719</v>
       </c>
       <c r="M7" t="n">
         <v>63.24104316971207</v>
@@ -8389,7 +8389,7 @@
         <v>70.88758571261646</v>
       </c>
       <c r="P7" t="n">
-        <v>74.02744707780755</v>
+        <v>80.62567278955083</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -8450,7 +8450,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>28.7432614797527</v>
+        <v>28.74326147975302</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -8462,16 +8462,16 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>18.51404722811002</v>
       </c>
       <c r="O8" t="n">
-        <v>37.04286764688702</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>94.06112491791001</v>
+        <v>112.5899453366881</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>36.12721584547121</v>
+        <v>36.12721584547141</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>17.42312794424198</v>
+        <v>17.42312794424224</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,19 +8614,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>15.21302138264836</v>
+        <v>124.5041857882223</v>
       </c>
       <c r="M10" t="n">
-        <v>122.0399674667673</v>
+        <v>122.0399674667668</v>
       </c>
       <c r="N10" t="n">
-        <v>113.7999345704551</v>
+        <v>113.7999345704546</v>
       </c>
       <c r="O10" t="n">
-        <v>72.96862790679867</v>
+        <v>24.68285064682429</v>
       </c>
       <c r="P10" t="n">
-        <v>135.0065633140411</v>
+        <v>74.00117616844094</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -9170,7 +9170,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>2.387423592153937e-12</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9410,7 +9410,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -22553,16 +22553,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>14.25430980652214</v>
       </c>
       <c r="H2" t="n">
-        <v>13.26120918726712</v>
+        <v>328.737591844935</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22592,19 +22592,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>84.01082088999308</v>
       </c>
       <c r="S2" t="n">
-        <v>185.1290231762283</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>218.5063572696783</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2617786911475</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22623,7 +22623,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -22635,7 +22635,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -22689,7 +22689,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -22705,22 +22705,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>67.64091731419292</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.5206907817879</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>158.0458795257661</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -22753,10 +22753,10 @@
         <v>156.1475068297698</v>
       </c>
       <c r="S4" t="n">
-        <v>215.8207507508087</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.9361746006879</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -22765,13 +22765,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23267,7 +23267,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>89.65031952604221</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23312,7 +23312,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>48.04716555533784</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23422,19 +23422,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>21.10203678741775</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.6861009032421</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>141.7347076965137</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>86.13649374674407</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>73.65767465442971</v>
       </c>
       <c r="S13" t="n">
-        <v>1.89739489777358</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1933087134791</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23501,7 +23501,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>350.6124841558293</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>12.38037836605497</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>91.93034877516573</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23552,13 +23552,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>127.1709528269149</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23656,16 +23656,16 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.6861009032421</v>
+        <v>163.8971554745985</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23701,10 +23701,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>74.77950327828215</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>218.097472392356</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-9.600851698805437e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>1.733724275254644e-12</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>-1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-13</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -26314,46 +26314,46 @@
         <v>34445.84248069672</v>
       </c>
       <c r="C2" t="n">
-        <v>41023.22342168202</v>
+        <v>41023.22342168203</v>
       </c>
       <c r="D2" t="n">
-        <v>41052.08849321416</v>
+        <v>41052.08849321413</v>
       </c>
       <c r="E2" t="n">
-        <v>38337.15909756552</v>
+        <v>38337.15909756551</v>
       </c>
       <c r="F2" t="n">
-        <v>38337.15909756553</v>
+        <v>38337.15909756551</v>
       </c>
       <c r="G2" t="n">
+        <v>41052.08849321413</v>
+      </c>
+      <c r="H2" t="n">
+        <v>41052.08849321413</v>
+      </c>
+      <c r="I2" t="n">
+        <v>41052.08849321415</v>
+      </c>
+      <c r="J2" t="n">
         <v>41052.08849321414</v>
-      </c>
-      <c r="H2" t="n">
-        <v>41052.08849321412</v>
-      </c>
-      <c r="I2" t="n">
-        <v>41052.08849321421</v>
-      </c>
-      <c r="J2" t="n">
-        <v>41052.08849321411</v>
       </c>
       <c r="K2" t="n">
         <v>41052.08849321421</v>
       </c>
       <c r="L2" t="n">
+        <v>41052.08849321414</v>
+      </c>
+      <c r="M2" t="n">
         <v>41052.08849321415</v>
       </c>
-      <c r="M2" t="n">
-        <v>41052.08849321421</v>
-      </c>
       <c r="N2" t="n">
-        <v>41052.08849321415</v>
+        <v>41052.0884932142</v>
       </c>
       <c r="O2" t="n">
-        <v>41052.08849321416</v>
+        <v>41052.08849321413</v>
       </c>
       <c r="P2" t="n">
-        <v>41052.08849321416</v>
+        <v>41052.08849321414</v>
       </c>
     </row>
     <row r="3">
@@ -26369,16 +26369,16 @@
         <v>30701.63307740797</v>
       </c>
       <c r="D3" t="n">
-        <v>163957.5386724288</v>
+        <v>163957.5386724277</v>
       </c>
       <c r="E3" t="n">
-        <v>952794.7800310552</v>
+        <v>952794.7800310561</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>25288.16188177115</v>
+        <v>25288.16188177127</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,10 +26393,10 @@
         <v>1769.674140452818</v>
       </c>
       <c r="L3" t="n">
-        <v>51208.50667952688</v>
+        <v>51208.50667952673</v>
       </c>
       <c r="M3" t="n">
-        <v>237482.4276434091</v>
+        <v>237482.4276434093</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,7 +26421,7 @@
         <v>354768.8844604411</v>
       </c>
       <c r="D4" t="n">
-        <v>306447.3994914577</v>
+        <v>306447.399491458</v>
       </c>
       <c r="E4" t="n">
         <v>9889.878033789992</v>
@@ -26430,34 +26430,34 @@
         <v>9889.878033789992</v>
       </c>
       <c r="G4" t="n">
+        <v>40959.76311601011</v>
+      </c>
+      <c r="H4" t="n">
+        <v>40959.76311601006</v>
+      </c>
+      <c r="I4" t="n">
         <v>40959.76311601002</v>
       </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
+        <v>40959.76311601</v>
+      </c>
+      <c r="K4" t="n">
+        <v>40959.76311600997</v>
+      </c>
+      <c r="L4" t="n">
         <v>40959.76311601002</v>
       </c>
-      <c r="I4" t="n">
+      <c r="M4" t="n">
+        <v>40959.76311601</v>
+      </c>
+      <c r="N4" t="n">
         <v>40959.76311601001</v>
       </c>
-      <c r="J4" t="n">
+      <c r="O4" t="n">
         <v>40959.76311601001</v>
       </c>
-      <c r="K4" t="n">
-        <v>40959.76311601004</v>
-      </c>
-      <c r="L4" t="n">
+      <c r="P4" t="n">
         <v>40959.76311600998</v>
-      </c>
-      <c r="M4" t="n">
-        <v>40959.76311601001</v>
-      </c>
-      <c r="N4" t="n">
-        <v>40959.76311600998</v>
-      </c>
-      <c r="O4" t="n">
-        <v>40959.76311601004</v>
-      </c>
-      <c r="P4" t="n">
-        <v>40959.76311601003</v>
       </c>
     </row>
     <row r="5">
@@ -26473,19 +26473,19 @@
         <v>40412.84643290664</v>
       </c>
       <c r="D5" t="n">
-        <v>50003.41674254749</v>
+        <v>50003.41674254742</v>
       </c>
       <c r="E5" t="n">
-        <v>92448.996000607</v>
+        <v>92448.99600060702</v>
       </c>
       <c r="F5" t="n">
         <v>92448.996000607</v>
       </c>
       <c r="G5" t="n">
-        <v>95106.43410215528</v>
+        <v>95106.4341021553</v>
       </c>
       <c r="H5" t="n">
-        <v>95106.43410215528</v>
+        <v>95106.43410215527</v>
       </c>
       <c r="I5" t="n">
         <v>95106.43410215528</v>
@@ -26506,10 +26506,10 @@
         <v>95106.4341021553</v>
       </c>
       <c r="O5" t="n">
-        <v>95106.4341021553</v>
+        <v>95106.43410215528</v>
       </c>
       <c r="P5" t="n">
-        <v>95106.4341021553</v>
+        <v>95106.43410215527</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-543837.9745501481</v>
+        <v>-544168.286850774</v>
       </c>
       <c r="C6" t="n">
-        <v>-384860.1405490736</v>
+        <v>-384861.5838026502</v>
       </c>
       <c r="D6" t="n">
-        <v>-479356.2664132198</v>
+        <v>-479356.266413219</v>
       </c>
       <c r="E6" t="n">
-        <v>-1016796.494967887</v>
+        <v>-1016932.24143767</v>
       </c>
       <c r="F6" t="n">
-        <v>-64001.71493683147</v>
+        <v>-64137.46140661395</v>
       </c>
       <c r="G6" t="n">
-        <v>-120302.2706067223</v>
+        <v>-120302.2706067226</v>
       </c>
       <c r="H6" t="n">
-        <v>-95014.10872495119</v>
+        <v>-95014.10872495107</v>
       </c>
       <c r="I6" t="n">
-        <v>-95014.10872495107</v>
+        <v>-95014.10872495113</v>
       </c>
       <c r="J6" t="n">
-        <v>-95014.10872495119</v>
+        <v>-95014.10872495113</v>
       </c>
       <c r="K6" t="n">
-        <v>-96783.78286540393</v>
+        <v>-96783.78286540387</v>
       </c>
       <c r="L6" t="n">
-        <v>-146222.615404478</v>
+        <v>-146222.6154044779</v>
       </c>
       <c r="M6" t="n">
-        <v>-332496.5363683602</v>
+        <v>-332496.5363683605</v>
       </c>
       <c r="N6" t="n">
-        <v>-95014.10872495113</v>
+        <v>-95014.1087249511</v>
       </c>
       <c r="O6" t="n">
-        <v>-95014.10872495118</v>
+        <v>-95014.10872495116</v>
       </c>
       <c r="P6" t="n">
-        <v>-95014.10872495116</v>
+        <v>-95014.1087249511</v>
       </c>
     </row>
   </sheetData>
@@ -26695,7 +26695,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.197442310920451e-14</v>
       </c>
       <c r="G2" t="n">
         <v>31.61020235221394</v>
@@ -26704,28 +26704,28 @@
         <v>31.61020235221394</v>
       </c>
       <c r="I2" t="n">
+        <v>31.61020235221391</v>
+      </c>
+      <c r="J2" t="n">
+        <v>31.61020235221391</v>
+      </c>
+      <c r="K2" t="n">
+        <v>31.61020235221388</v>
+      </c>
+      <c r="L2" t="n">
         <v>31.61020235221394</v>
       </c>
-      <c r="J2" t="n">
+      <c r="M2" t="n">
         <v>31.61020235221394</v>
       </c>
-      <c r="K2" t="n">
-        <v>31.61020235221394</v>
-      </c>
-      <c r="L2" t="n">
-        <v>31.61020235221391</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
+        <v>31.61020235221397</v>
+      </c>
+      <c r="O2" t="n">
         <v>31.61020235221392</v>
       </c>
-      <c r="N2" t="n">
-        <v>31.61020235221391</v>
-      </c>
-      <c r="O2" t="n">
-        <v>31.61020235221395</v>
-      </c>
       <c r="P2" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>292.0726078812197</v>
       </c>
       <c r="D3" t="n">
-        <v>446.3721993893839</v>
+        <v>446.372199389383</v>
       </c>
       <c r="E3" t="n">
         <v>1278.159870620123</v>
@@ -26793,7 +26793,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="D4" t="n">
-        <v>109.2911644055744</v>
+        <v>109.2911644055737</v>
       </c>
       <c r="E4" t="n">
         <v>1062.255112188953</v>
@@ -26917,10 +26917,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.197442310920451e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26963,10 +26963,10 @@
         <v>31.27621536375483</v>
       </c>
       <c r="D3" t="n">
-        <v>154.2995915081643</v>
+        <v>154.2995915081633</v>
       </c>
       <c r="E3" t="n">
-        <v>831.7876712307391</v>
+        <v>831.78767123074</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27015,16 +27015,16 @@
         <v>6.876045741711437</v>
       </c>
       <c r="D4" t="n">
-        <v>102.415118663863</v>
+        <v>102.4151186638622</v>
       </c>
       <c r="E4" t="n">
-        <v>952.9639477833787</v>
+        <v>952.9639477833794</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27039,10 +27039,10 @@
         <v>6.87604574171155</v>
       </c>
       <c r="L4" t="n">
-        <v>102.415118663863</v>
+        <v>102.4151186638623</v>
       </c>
       <c r="M4" t="n">
-        <v>952.9639477833787</v>
+        <v>952.9639477833796</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,10 +27154,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.197442310920451e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27261,16 +27261,16 @@
         <v>6.876045741711437</v>
       </c>
       <c r="L4" t="n">
-        <v>102.415118663863</v>
+        <v>102.4151186638622</v>
       </c>
       <c r="M4" t="n">
-        <v>952.9639477833787</v>
+        <v>952.9639477833794</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27385,16 +27385,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>315.4763826576679</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>170.0563803341062</v>
@@ -27424,19 +27424,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>84.01082088999308</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>185.1290231762283</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2617786911475</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27467,7 +27467,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>136.7825588849655</v>
@@ -27521,7 +27521,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27537,22 +27537,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>77.78013070873833</v>
       </c>
       <c r="G4" t="n">
-        <v>167.5206907817879</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>158.0458795257661</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>141.3076148215571</v>
@@ -27585,10 +27585,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>215.8207507508087</v>
       </c>
       <c r="T4" t="n">
-        <v>225.9361746006879</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2933772523089</v>
@@ -27597,13 +27597,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27634,7 +27634,7 @@
         <v>327.4499233400343</v>
       </c>
       <c r="I5" t="n">
-        <v>165.2090384534583</v>
+        <v>158.3329927117468</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>69.236666350921</v>
+        <v>70.05629100333302</v>
       </c>
       <c r="S5" t="n">
         <v>182.2638703818502</v>
@@ -27676,7 +27676,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>343.1845476281136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27701,7 +27701,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>150.7690347136895</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27713,7 +27713,7 @@
         <v>106.1680491180583</v>
       </c>
       <c r="I6" t="n">
-        <v>60.89068171472653</v>
+        <v>67.76672745643796</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27746,22 +27746,22 @@
         <v>160.0140437983948</v>
       </c>
       <c r="T6" t="n">
-        <v>197.6325142925307</v>
+        <v>190.7564685508192</v>
       </c>
       <c r="U6" t="n">
         <v>225.9000510515577</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>225.9245414077138</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>199.7165641141781</v>
       </c>
       <c r="Y6" t="n">
-        <v>199.6262746880049</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27783,19 +27783,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>138.5450022812198</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>160.5882453074533</v>
+        <v>167.4642910491648</v>
       </c>
       <c r="H7" t="n">
-        <v>150.6683888885505</v>
+        <v>157.544434630262</v>
       </c>
       <c r="I7" t="n">
-        <v>139.6115210441259</v>
+        <v>132.7354753024145</v>
       </c>
       <c r="J7" t="n">
-        <v>56.12231664958679</v>
+        <v>50.06589556028736</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,19 +27816,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>36.00265837233079</v>
+        <v>42.05907946163022</v>
       </c>
       <c r="R7" t="n">
         <v>153.6115697610955</v>
       </c>
       <c r="S7" t="n">
-        <v>214.8378572286395</v>
+        <v>207.9618114869281</v>
       </c>
       <c r="T7" t="n">
         <v>225.6951939249344</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2903009032567</v>
+        <v>279.4142551615452</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>344.0023068840717</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27865,13 +27865,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>304.2171120064878</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>211.8061129383474</v>
+        <v>211.8061129383482</v>
       </c>
       <c r="I8" t="n">
-        <v>141.2949278941879</v>
+        <v>32.0037634886144</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.1478006752466</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>168.1287871999716</v>
+        <v>58.83762279439804</v>
       </c>
       <c r="T8" t="n">
-        <v>215.2405960854297</v>
+        <v>215.2405960854298</v>
       </c>
       <c r="U8" t="n">
         <v>251.2020960195907</v>
@@ -27913,13 +27913,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>239.9498043118386</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>296.850326789335</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27935,7 +27935,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>38.15390115906432</v>
+        <v>38.15390115906509</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -27944,13 +27944,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>80.66582846198136</v>
+        <v>27.09223142310132</v>
       </c>
       <c r="H9" t="n">
-        <v>102.9626934529547</v>
+        <v>102.9626934529548</v>
       </c>
       <c r="I9" t="n">
-        <v>56.33982374569183</v>
+        <v>56.3398237456919</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,16 +27977,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>40.54609024173646</v>
       </c>
       <c r="S9" t="n">
         <v>153.8493384206865</v>
       </c>
       <c r="T9" t="n">
-        <v>87.00360154171091</v>
+        <v>196.2947659472854</v>
       </c>
       <c r="U9" t="n">
-        <v>116.5870517981283</v>
+        <v>225.8782162037027</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -27995,10 +27995,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>96.48182079790381</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>109.4190381688751</v>
       </c>
     </row>
     <row r="10">
@@ -28017,7 +28017,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>68.93014618203755</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28029,10 +28029,10 @@
         <v>155.0705821631311</v>
       </c>
       <c r="I10" t="n">
-        <v>21.95276567610874</v>
+        <v>131.2439300816832</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>36.45038348304604</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,31 +28053,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>18.75984114389742</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>141.1006553414335</v>
+        <v>141.1006553414336</v>
       </c>
       <c r="S10" t="n">
-        <v>209.9888028528829</v>
+        <v>209.988802852883</v>
       </c>
       <c r="T10" t="n">
         <v>224.5063282198715</v>
       </c>
       <c r="U10" t="n">
-        <v>176.9839594886814</v>
+        <v>286.2751238942558</v>
       </c>
       <c r="V10" t="n">
-        <v>192.324369198444</v>
+        <v>142.8464789182543</v>
       </c>
       <c r="W10" t="n">
-        <v>177.2318339310166</v>
+        <v>177.2318339310173</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>109.2934889465211</v>
       </c>
     </row>
     <row r="11">
@@ -28582,7 +28582,7 @@
         <v>31.61020235221394</v>
       </c>
       <c r="I17" t="n">
-        <v>12.38037836605494</v>
+        <v>12.38037836605497</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28819,7 +28819,7 @@
         <v>31.61020235221394</v>
       </c>
       <c r="I20" t="n">
-        <v>12.38037836605494</v>
+        <v>12.38037836605497</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="C23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="D23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="E23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="F23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="G23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="H23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="I23" t="n">
         <v>12.38037836605494</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="T23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="U23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="V23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221429</v>
       </c>
       <c r="W23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="X23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Y23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="C25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="D25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="E25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="F25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="G25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="H25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="I25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="J25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="K25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="L25" t="n">
-        <v>31.61020235221366</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="M25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="N25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="O25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="P25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Q25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="R25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="S25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="T25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="U25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="V25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="W25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="X25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Y25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="C26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="D26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="E26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="F26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="G26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="H26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="I26" t="n">
         <v>12.38037836605494</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="T26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="U26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="V26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="W26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="X26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Y26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="C28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="D28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="E28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="F28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="G28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="H28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="I28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="J28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="K28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="L28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="M28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="N28" t="n">
-        <v>31.61020235221332</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="O28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="P28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Q28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="R28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="S28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="T28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="U28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="V28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="W28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="X28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Y28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="C29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="D29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="E29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="F29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="G29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="H29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="I29" t="n">
         <v>12.38037836605494</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="T29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="U29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="V29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="W29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="X29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="Y29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="C31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="D31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="E31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="F31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="G31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="H31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="I31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="J31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="K31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="L31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="M31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="N31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="O31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="P31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="Q31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="R31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="S31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="T31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="U31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="V31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="W31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="X31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
       <c r="Y31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221388</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C32" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D32" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E32" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F32" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G32" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H32" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I32" t="n">
         <v>12.38037836605494</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T32" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U32" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V32" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W32" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X32" t="n">
-        <v>31.61020235221355</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y32" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="J34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="K34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="L34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="M34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="N34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="O34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="P34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Q34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="R34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="S34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y34" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C35" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D35" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E35" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F35" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G35" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H35" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I35" t="n">
         <v>12.38037836605494</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T35" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U35" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V35" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W35" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221338</v>
       </c>
       <c r="X35" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y35" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C37" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D37" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E37" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F37" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G37" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H37" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I37" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="J37" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="K37" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="L37" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="M37" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="N37" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="O37" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="P37" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Q37" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="R37" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="S37" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T37" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U37" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V37" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W37" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X37" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y37" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221338</v>
       </c>
       <c r="C38" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="D38" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="E38" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="F38" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="G38" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="H38" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="I38" t="n">
         <v>12.38037836605494</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="T38" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="U38" t="n">
-        <v>31.61020235221332</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="V38" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="W38" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="X38" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="Y38" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="C40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="D40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="E40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="F40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="G40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="H40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="I40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="J40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="K40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="L40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221264</v>
       </c>
       <c r="M40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="N40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="O40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="P40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="Q40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="R40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="S40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="T40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="U40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="V40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="W40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="X40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="Y40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="C41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="D41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="E41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="F41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="G41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="H41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="I41" t="n">
         <v>12.38037836605494</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="T41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="U41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="V41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="W41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="X41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Y41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="C43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="D43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="E43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="F43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="G43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="H43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="I43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="J43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="K43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="L43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="M43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="N43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="O43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="P43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Q43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="R43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="S43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="T43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="U43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="V43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="W43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="X43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Y43" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="C44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="D44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="E44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="F44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="G44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="H44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="I44" t="n">
         <v>12.38037836605494</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="T44" t="n">
-        <v>31.61020235221366</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="U44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="V44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="W44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="X44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="Y44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="C46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="D46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="E46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="F46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="G46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="H46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="I46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="J46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="K46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="L46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="M46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="N46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="O46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="P46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="Q46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="R46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="S46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="T46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="U46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="V46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="W46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="X46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="Y46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221389</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.794461103072899</v>
+        <v>1.794461103072895</v>
       </c>
       <c r="H8" t="n">
-        <v>18.37752477184533</v>
+        <v>18.37752477184529</v>
       </c>
       <c r="I8" t="n">
-        <v>69.180961676218</v>
+        <v>69.18096167621785</v>
       </c>
       <c r="J8" t="n">
-        <v>152.3026430469336</v>
+        <v>152.3026430469333</v>
       </c>
       <c r="K8" t="n">
-        <v>228.2621815400094</v>
+        <v>228.262181540009</v>
       </c>
       <c r="L8" t="n">
-        <v>283.1794205231767</v>
+        <v>283.1794205231761</v>
       </c>
       <c r="M8" t="n">
-        <v>315.0916681649494</v>
+        <v>315.0916681649487</v>
       </c>
       <c r="N8" t="n">
-        <v>320.1901807740552</v>
+        <v>320.1901807740546</v>
       </c>
       <c r="O8" t="n">
-        <v>302.3465081803741</v>
+        <v>302.3465081803735</v>
       </c>
       <c r="P8" t="n">
-        <v>258.0457496982619</v>
+        <v>258.0457496982613</v>
       </c>
       <c r="Q8" t="n">
-        <v>193.7816114444636</v>
+        <v>193.7816114444632</v>
       </c>
       <c r="R8" t="n">
-        <v>112.7213172659031</v>
+        <v>112.7213172659028</v>
       </c>
       <c r="S8" t="n">
-        <v>40.89128238627372</v>
+        <v>40.89128238627364</v>
       </c>
       <c r="T8" t="n">
-        <v>7.855253478701619</v>
+        <v>7.855253478701601</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1435568882458319</v>
+        <v>0.1435568882458316</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9601213345356561</v>
+        <v>0.960121334535654</v>
       </c>
       <c r="H9" t="n">
-        <v>9.272750783541731</v>
+        <v>9.272750783541712</v>
       </c>
       <c r="I9" t="n">
-        <v>33.05680910572325</v>
+        <v>33.05680910572318</v>
       </c>
       <c r="J9" t="n">
-        <v>90.71041082119548</v>
+        <v>90.71041082119528</v>
       </c>
       <c r="K9" t="n">
-        <v>155.0385402350844</v>
+        <v>155.0385402350841</v>
       </c>
       <c r="L9" t="n">
-        <v>208.4684502902967</v>
+        <v>208.4684502902963</v>
       </c>
       <c r="M9" t="n">
-        <v>243.2728486672142</v>
+        <v>243.2728486672137</v>
       </c>
       <c r="N9" t="n">
-        <v>240.6328764889078</v>
+        <v>240.632876488907</v>
       </c>
       <c r="O9" t="n">
-        <v>228.4372896252444</v>
+        <v>228.4372896252439</v>
       </c>
       <c r="P9" t="n">
-        <v>183.3410643114622</v>
+        <v>183.3410643114618</v>
       </c>
       <c r="Q9" t="n">
-        <v>122.5586461417795</v>
+        <v>122.5586461417793</v>
       </c>
       <c r="R9" t="n">
-        <v>59.6117439109068</v>
+        <v>59.61174391090668</v>
       </c>
       <c r="S9" t="n">
-        <v>17.83383268315132</v>
+        <v>17.83383268315128</v>
       </c>
       <c r="T9" t="n">
-        <v>3.869962747536261</v>
+        <v>3.869962747536253</v>
       </c>
       <c r="U9" t="n">
-        <v>0.06316587727208266</v>
+        <v>0.06316587727208252</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.804933474308725</v>
+        <v>0.8049334743087233</v>
       </c>
       <c r="H10" t="n">
-        <v>7.156590344308488</v>
+        <v>7.156590344308472</v>
       </c>
       <c r="I10" t="n">
-        <v>24.20654484557512</v>
+        <v>24.20654484557507</v>
       </c>
       <c r="J10" t="n">
-        <v>56.90879663362686</v>
+        <v>56.90879663362674</v>
       </c>
       <c r="K10" t="n">
-        <v>93.51863456059549</v>
+        <v>93.51863456059529</v>
       </c>
       <c r="L10" t="n">
-        <v>119.6716548985899</v>
+        <v>119.6716548985897</v>
       </c>
       <c r="M10" t="n">
-        <v>126.1769808864122</v>
+        <v>126.1769808864119</v>
       </c>
       <c r="N10" t="n">
-        <v>123.1767743003525</v>
+        <v>123.1767743003523</v>
       </c>
       <c r="O10" t="n">
-        <v>113.7736878050187</v>
+        <v>113.7736878050185</v>
       </c>
       <c r="P10" t="n">
-        <v>97.35304492912067</v>
+        <v>97.35304492912046</v>
       </c>
       <c r="Q10" t="n">
-        <v>67.40220210779697</v>
+        <v>67.40220210779682</v>
       </c>
       <c r="R10" t="n">
-        <v>36.19273603573593</v>
+        <v>36.19273603573586</v>
       </c>
       <c r="S10" t="n">
-        <v>14.02779518408932</v>
+        <v>14.02779518408929</v>
       </c>
       <c r="T10" t="n">
-        <v>3.439261208410006</v>
+        <v>3.439261208409999</v>
       </c>
       <c r="U10" t="n">
-        <v>0.04390546223502142</v>
+        <v>0.04390546223502132</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31847,13 +31847,13 @@
         <v>596.9368339155585</v>
       </c>
       <c r="M12" t="n">
-        <v>696.597129487967</v>
+        <v>529.6867378368186</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>715.033982716063</v>
       </c>
       <c r="O12" t="n">
-        <v>584.3932527497834</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>524.9860796892351</v>
@@ -31862,7 +31862,7 @@
         <v>350.9392912691327</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>170.6946332877214</v>
       </c>
       <c r="S12" t="n">
         <v>51.06610426486998</v>
@@ -32084,13 +32084,13 @@
         <v>596.9368339155584</v>
       </c>
       <c r="M15" t="n">
-        <v>626.8739812799222</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N15" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>654.1164009578283</v>
+        <v>559.3781234260266</v>
       </c>
       <c r="P15" t="n">
         <v>524.986079689235</v>
@@ -32099,7 +32099,7 @@
         <v>350.9392912691326</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>170.6946332877214</v>
       </c>
       <c r="S15" t="n">
         <v>51.06610426486996</v>
@@ -32224,40 +32224,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.138331138171345</v>
+        <v>5.138331138171344</v>
       </c>
       <c r="H17" t="n">
-        <v>52.6229337687973</v>
+        <v>52.62293376879729</v>
       </c>
       <c r="I17" t="n">
-        <v>198.095511204351</v>
+        <v>198.0955112043509</v>
       </c>
       <c r="J17" t="n">
-        <v>436.1094324383706</v>
+        <v>436.1094324383705</v>
       </c>
       <c r="K17" t="n">
-        <v>653.6149895171637</v>
+        <v>653.6149895171636</v>
       </c>
       <c r="L17" t="n">
-        <v>810.8671910869753</v>
+        <v>810.867191086975</v>
       </c>
       <c r="M17" t="n">
-        <v>902.2459874654298</v>
+        <v>902.2459874654296</v>
       </c>
       <c r="N17" t="n">
-        <v>916.8452708117592</v>
+        <v>916.8452708117591</v>
       </c>
       <c r="O17" t="n">
-        <v>865.7509905565679</v>
+        <v>865.7509905565677</v>
       </c>
       <c r="P17" t="n">
-        <v>738.8984405829626</v>
+        <v>738.8984405829625</v>
       </c>
       <c r="Q17" t="n">
-        <v>554.8819566972012</v>
+        <v>554.8819566972011</v>
       </c>
       <c r="R17" t="n">
-        <v>322.7706933581561</v>
+        <v>322.770693358156</v>
       </c>
       <c r="S17" t="n">
         <v>117.0897208110796</v>
@@ -32266,7 +32266,7 @@
         <v>22.49304455734507</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4110664910537075</v>
+        <v>0.4110664910537074</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.749249533031963</v>
+        <v>2.749249533031962</v>
       </c>
       <c r="H18" t="n">
         <v>26.55196259533501</v>
       </c>
       <c r="I18" t="n">
-        <v>94.65617909781101</v>
+        <v>94.65617909781099</v>
       </c>
       <c r="J18" t="n">
-        <v>259.7437903115856</v>
+        <v>183.2824316050697</v>
       </c>
       <c r="K18" t="n">
-        <v>443.9435090247271</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L18" t="n">
-        <v>596.9368339155585</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M18" t="n">
-        <v>554.7018671605763</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N18" t="n">
-        <v>715.033982716063</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>654.1164009578283</v>
       </c>
       <c r="P18" t="n">
-        <v>524.9860796892351</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>350.9392912691327</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>170.6946332877214</v>
       </c>
       <c r="S18" t="n">
-        <v>51.06610426486998</v>
+        <v>51.06610426486996</v>
       </c>
       <c r="T18" t="n">
         <v>11.08140491603672</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1808716798047345</v>
+        <v>0.1808716798047344</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32391,10 +32391,10 @@
         <v>69.31398118051422</v>
       </c>
       <c r="J19" t="n">
-        <v>162.9549067838147</v>
+        <v>162.9549067838146</v>
       </c>
       <c r="K19" t="n">
-        <v>267.7849696151667</v>
+        <v>267.7849696151666</v>
       </c>
       <c r="L19" t="n">
         <v>342.6725659692048</v>
@@ -32406,22 +32406,22 @@
         <v>352.7092639696482</v>
       </c>
       <c r="O19" t="n">
-        <v>325.7840929246177</v>
+        <v>325.7840929246176</v>
       </c>
       <c r="P19" t="n">
         <v>278.7645724381985</v>
       </c>
       <c r="Q19" t="n">
-        <v>193.0021404636386</v>
+        <v>193.0021404636385</v>
       </c>
       <c r="R19" t="n">
         <v>103.6357167227398</v>
       </c>
       <c r="S19" t="n">
-        <v>40.16774544227499</v>
+        <v>40.16774544227498</v>
       </c>
       <c r="T19" t="n">
-        <v>9.848117035925535</v>
+        <v>9.848117035925533</v>
       </c>
       <c r="U19" t="n">
         <v>0.1257206430118155</v>
@@ -32461,40 +32461,40 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.138331138171345</v>
+        <v>5.138331138171344</v>
       </c>
       <c r="H20" t="n">
-        <v>52.6229337687973</v>
+        <v>52.62293376879729</v>
       </c>
       <c r="I20" t="n">
-        <v>198.095511204351</v>
+        <v>198.0955112043509</v>
       </c>
       <c r="J20" t="n">
-        <v>436.1094324383706</v>
+        <v>436.1094324383705</v>
       </c>
       <c r="K20" t="n">
-        <v>653.6149895171637</v>
+        <v>653.6149895171636</v>
       </c>
       <c r="L20" t="n">
-        <v>810.8671910869753</v>
+        <v>810.867191086975</v>
       </c>
       <c r="M20" t="n">
-        <v>902.2459874654298</v>
+        <v>902.2459874654296</v>
       </c>
       <c r="N20" t="n">
-        <v>916.8452708117592</v>
+        <v>916.8452708117591</v>
       </c>
       <c r="O20" t="n">
-        <v>865.7509905565679</v>
+        <v>865.7509905565677</v>
       </c>
       <c r="P20" t="n">
-        <v>738.8984405829626</v>
+        <v>738.8984405829625</v>
       </c>
       <c r="Q20" t="n">
-        <v>554.8819566972012</v>
+        <v>554.8819566972011</v>
       </c>
       <c r="R20" t="n">
-        <v>322.7706933581561</v>
+        <v>322.770693358156</v>
       </c>
       <c r="S20" t="n">
         <v>117.0897208110796</v>
@@ -32503,7 +32503,7 @@
         <v>22.49304455734507</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4110664910537075</v>
+        <v>0.4110664910537074</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.749249533031963</v>
+        <v>2.749249533031962</v>
       </c>
       <c r="H21" t="n">
         <v>26.55196259533501</v>
       </c>
       <c r="I21" t="n">
-        <v>94.65617909781101</v>
+        <v>94.65617909781099</v>
       </c>
       <c r="J21" t="n">
-        <v>259.7437903115856</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K21" t="n">
-        <v>443.9435090247271</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L21" t="n">
-        <v>596.9368339155585</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N21" t="n">
-        <v>616.081659441237</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O21" t="n">
-        <v>654.1164009578284</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>524.9860796892351</v>
+        <v>524.986079689235</v>
       </c>
       <c r="Q21" t="n">
-        <v>350.9392912691327</v>
+        <v>209.0440289417422</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>51.06610426486998</v>
+        <v>51.06610426486996</v>
       </c>
       <c r="T21" t="n">
         <v>11.08140491603672</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1808716798047345</v>
+        <v>0.1808716798047344</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32628,10 +32628,10 @@
         <v>69.31398118051422</v>
       </c>
       <c r="J22" t="n">
-        <v>162.9549067838147</v>
+        <v>162.9549067838146</v>
       </c>
       <c r="K22" t="n">
-        <v>267.7849696151667</v>
+        <v>267.7849696151666</v>
       </c>
       <c r="L22" t="n">
         <v>342.6725659692048</v>
@@ -32643,22 +32643,22 @@
         <v>352.7092639696482</v>
       </c>
       <c r="O22" t="n">
-        <v>325.7840929246177</v>
+        <v>325.7840929246176</v>
       </c>
       <c r="P22" t="n">
         <v>278.7645724381985</v>
       </c>
       <c r="Q22" t="n">
-        <v>193.0021404636386</v>
+        <v>193.0021404636385</v>
       </c>
       <c r="R22" t="n">
         <v>103.6357167227398</v>
       </c>
       <c r="S22" t="n">
-        <v>40.16774544227499</v>
+        <v>40.16774544227498</v>
       </c>
       <c r="T22" t="n">
-        <v>9.848117035925535</v>
+        <v>9.848117035925533</v>
       </c>
       <c r="U22" t="n">
         <v>0.1257206430118155</v>
@@ -32801,10 +32801,10 @@
         <v>715.033982716063</v>
       </c>
       <c r="O24" t="n">
-        <v>602.6701715750696</v>
+        <v>211.6584993001647</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>524.9860796892351</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33038,16 +33038,16 @@
         <v>715.033982716063</v>
       </c>
       <c r="O27" t="n">
-        <v>186.6433699764071</v>
+        <v>602.6701715750696</v>
       </c>
       <c r="P27" t="n">
-        <v>524.9860796892351</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>51.06610426486998</v>
@@ -33263,10 +33263,10 @@
         <v>259.7437903115856</v>
       </c>
       <c r="K30" t="n">
-        <v>223.8954149958791</v>
+        <v>443.9435090247271</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>596.9368339155585</v>
       </c>
       <c r="M30" t="n">
         <v>696.597129487967</v>
@@ -33275,16 +33275,16 @@
         <v>715.033982716063</v>
       </c>
       <c r="O30" t="n">
-        <v>654.1164009578284</v>
+        <v>602.6701715750696</v>
       </c>
       <c r="P30" t="n">
-        <v>524.9860796892351</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>350.9392912691327</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>51.06610426486998</v>
@@ -33509,16 +33509,16 @@
         <v>696.597129487967</v>
       </c>
       <c r="N33" t="n">
-        <v>573.1387203886723</v>
+        <v>715.033982716063</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>602.6701715750696</v>
       </c>
       <c r="P33" t="n">
-        <v>524.9860796892351</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>350.9392912691327</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33980,13 +33980,13 @@
         <v>596.9368339155585</v>
       </c>
       <c r="M39" t="n">
-        <v>645.1509001052082</v>
+        <v>696.597129487967</v>
       </c>
       <c r="N39" t="n">
         <v>715.033982716063</v>
       </c>
       <c r="O39" t="n">
-        <v>654.1164009578284</v>
+        <v>602.6701715750696</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34211,10 +34211,10 @@
         <v>259.7437903115856</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>443.9435090247271</v>
       </c>
       <c r="L42" t="n">
-        <v>224.6083558013943</v>
+        <v>596.9368339155585</v>
       </c>
       <c r="M42" t="n">
         <v>696.597129487967</v>
@@ -34223,16 +34223,16 @@
         <v>715.033982716063</v>
       </c>
       <c r="O42" t="n">
-        <v>654.1164009578284</v>
+        <v>602.6701715750696</v>
       </c>
       <c r="P42" t="n">
-        <v>524.9860796892351</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>350.9392912691327</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>51.06610426486998</v>
@@ -34369,7 +34369,7 @@
         <v>436.1094324383706</v>
       </c>
       <c r="K44" t="n">
-        <v>653.6149895171643</v>
+        <v>653.6149895171637</v>
       </c>
       <c r="L44" t="n">
         <v>810.8671910869753</v>
@@ -34460,16 +34460,16 @@
         <v>715.033982716063</v>
       </c>
       <c r="O45" t="n">
-        <v>366.6975250682009</v>
+        <v>602.6701715750696</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>350.9392912691327</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>51.06610426486998</v>
@@ -34933,7 +34933,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -34942,16 +34942,16 @@
         <v>6.598225711743296</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>6.876045741711437</v>
@@ -35015,7 +35015,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>6.598225711743296</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35030,7 +35030,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>6.598225711743297</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35097,7 +35097,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>6.598225711743296</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
         <v>6.876045741711437</v>
@@ -35109,7 +35109,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>6.598225711743297</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35173,25 +35173,25 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>8.172330495028888</v>
+        <v>8.172330495028405</v>
       </c>
       <c r="L8" t="n">
-        <v>47.41300555318946</v>
+        <v>47.4130055531889</v>
       </c>
       <c r="M8" t="n">
-        <v>84.74543493767666</v>
+        <v>84.74543493767598</v>
       </c>
       <c r="N8" t="n">
-        <v>90.77711717746433</v>
+        <v>109.2911644055737</v>
       </c>
       <c r="O8" t="n">
-        <v>109.2911644055744</v>
+        <v>72.24829675868673</v>
       </c>
       <c r="P8" t="n">
-        <v>26.81275394299234</v>
+        <v>26.81275394299178</v>
       </c>
       <c r="Q8" t="n">
-        <v>65.53704648792416</v>
+        <v>84.0658669067018</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,22 +35252,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>17.19710126072545</v>
+        <v>17.19710126072511</v>
       </c>
       <c r="L9" t="n">
-        <v>69.91407051042256</v>
+        <v>69.91407051042211</v>
       </c>
       <c r="M9" t="n">
-        <v>101.1388147451959</v>
+        <v>101.1388147451954</v>
       </c>
       <c r="N9" t="n">
-        <v>109.2911644055744</v>
+        <v>109.2911644055737</v>
       </c>
       <c r="O9" t="n">
-        <v>85.84104518079999</v>
+        <v>85.84104518079951</v>
       </c>
       <c r="P9" t="n">
-        <v>49.366656897132</v>
+        <v>49.36665689713161</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>71.24914273471263</v>
+        <v>71.24914273471244</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>109.2911644055737</v>
       </c>
       <c r="M10" t="n">
-        <v>109.2911644055744</v>
+        <v>109.2911644055737</v>
       </c>
       <c r="N10" t="n">
-        <v>109.2911644055744</v>
+        <v>109.2911644055737</v>
       </c>
       <c r="O10" t="n">
-        <v>48.28577725997462</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>94.63160419401416</v>
+        <v>33.62621704841377</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35495,13 +35495,13 @@
         <v>458.3824541356843</v>
       </c>
       <c r="M12" t="n">
-        <v>554.4630955659486</v>
+        <v>387.5527039148003</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>583.6922706327297</v>
       </c>
       <c r="O12" t="n">
-        <v>441.7970083053389</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>391.0116722749049</v>
@@ -35510,7 +35510,7 @@
         <v>210.9575171831112</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>25.01512932375746</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35732,13 +35732,13 @@
         <v>458.3824541356842</v>
       </c>
       <c r="M15" t="n">
-        <v>484.7399473579039</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>511.5201565133839</v>
+        <v>416.7818789815822</v>
       </c>
       <c r="P15" t="n">
         <v>391.0116722749048</v>
@@ -35747,7 +35747,7 @@
         <v>210.9575171831111</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>25.01512932375741</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35881,28 +35881,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>255.0635279116843</v>
+        <v>255.0635279116842</v>
       </c>
       <c r="K17" t="n">
-        <v>433.5251384721832</v>
+        <v>433.5251384721831</v>
       </c>
       <c r="L17" t="n">
-        <v>575.1007761169881</v>
+        <v>575.1007761169878</v>
       </c>
       <c r="M17" t="n">
-        <v>671.8997542381571</v>
+        <v>671.8997542381593</v>
       </c>
       <c r="N17" t="n">
-        <v>687.4322072151683</v>
+        <v>687.4322072151681</v>
       </c>
       <c r="O17" t="n">
-        <v>635.6527791348811</v>
+        <v>635.6527791348809</v>
       </c>
       <c r="P17" t="n">
-        <v>507.6654448276929</v>
+        <v>507.665444827693</v>
       </c>
       <c r="Q17" t="n">
-        <v>332.5762668227517</v>
+        <v>332.5762668227516</v>
       </c>
       <c r="R17" t="n">
         <v>107.1851555440239</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>132.9061636449189</v>
+        <v>56.44480493840303</v>
       </c>
       <c r="K18" t="n">
-        <v>306.1020700503681</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L18" t="n">
-        <v>458.3824541356843</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M18" t="n">
-        <v>412.567833238558</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N18" t="n">
-        <v>583.6922706327297</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>511.5201565133839</v>
       </c>
       <c r="P18" t="n">
-        <v>391.0116722749049</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>25.01512932375741</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36042,19 +36042,19 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K19" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L19" t="n">
         <v>401.8727935817349</v>
       </c>
       <c r="M19" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N19" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O19" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P19" t="n">
         <v>307.6533340553059</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>255.0635279116843</v>
+        <v>255.0635279116842</v>
       </c>
       <c r="K20" t="n">
-        <v>433.5251384721832</v>
+        <v>433.5251384721831</v>
       </c>
       <c r="L20" t="n">
-        <v>575.1007761169881</v>
+        <v>575.1007761169878</v>
       </c>
       <c r="M20" t="n">
-        <v>671.8997542381571</v>
+        <v>671.8997542381569</v>
       </c>
       <c r="N20" t="n">
-        <v>687.4322072151683</v>
+        <v>687.432207215169</v>
       </c>
       <c r="O20" t="n">
-        <v>635.6527791348811</v>
+        <v>635.6527791348809</v>
       </c>
       <c r="P20" t="n">
-        <v>507.6654448276931</v>
+        <v>507.665444827693</v>
       </c>
       <c r="Q20" t="n">
-        <v>332.5762668227517</v>
+        <v>332.5762668227516</v>
       </c>
       <c r="R20" t="n">
-        <v>107.1851555440238</v>
+        <v>107.1851555440239</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>132.9061636449189</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K21" t="n">
-        <v>306.1020700503681</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L21" t="n">
-        <v>458.3824541356843</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N21" t="n">
-        <v>484.7399473579036</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O21" t="n">
-        <v>511.520156513384</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>391.0116722749049</v>
+        <v>391.0116722749048</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.9575171831112</v>
+        <v>69.06225485572071</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,19 +36279,19 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K22" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L22" t="n">
         <v>401.8727935817349</v>
       </c>
       <c r="M22" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N22" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O22" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P22" t="n">
         <v>307.6533340553059</v>
@@ -36449,10 +36449,10 @@
         <v>583.6922706327297</v>
       </c>
       <c r="O24" t="n">
-        <v>460.0739271306251</v>
+        <v>69.06225485572025</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>391.0116722749049</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36519,16 +36519,16 @@
         <v>277.1256801414978</v>
       </c>
       <c r="L25" t="n">
-        <v>401.8727935817346</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M25" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N25" t="n">
         <v>428.4516387010908</v>
       </c>
       <c r="O25" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P25" t="n">
         <v>307.6533340553059</v>
@@ -36686,16 +36686,16 @@
         <v>583.6922706327297</v>
       </c>
       <c r="O27" t="n">
-        <v>44.04712553196261</v>
+        <v>460.0739271306251</v>
       </c>
       <c r="P27" t="n">
-        <v>391.0116722749049</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>25.01512932375746</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36756,16 +36756,16 @@
         <v>277.1256801414978</v>
       </c>
       <c r="L28" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M28" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N28" t="n">
-        <v>428.4516387010902</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O28" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P28" t="n">
         <v>307.6533340553059</v>
@@ -36911,10 +36911,10 @@
         <v>132.9061636449189</v>
       </c>
       <c r="K30" t="n">
-        <v>86.0539760215201</v>
+        <v>306.1020700503681</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>458.3824541356843</v>
       </c>
       <c r="M30" t="n">
         <v>554.4630955659486</v>
@@ -36923,16 +36923,16 @@
         <v>583.6922706327297</v>
       </c>
       <c r="O30" t="n">
-        <v>511.520156513384</v>
+        <v>460.0739271306251</v>
       </c>
       <c r="P30" t="n">
-        <v>391.0116722749049</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>25.01512932375746</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36990,19 +36990,19 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K31" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L31" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M31" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N31" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O31" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P31" t="n">
         <v>307.6533340553059</v>
@@ -37157,16 +37157,16 @@
         <v>554.4630955659486</v>
       </c>
       <c r="N33" t="n">
-        <v>441.7970083053389</v>
+        <v>583.6922706327297</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>460.0739271306251</v>
       </c>
       <c r="P33" t="n">
-        <v>391.0116722749049</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37230,16 +37230,16 @@
         <v>277.1256801414978</v>
       </c>
       <c r="L34" t="n">
-        <v>401.8727935817348</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M34" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N34" t="n">
         <v>428.4516387010908</v>
       </c>
       <c r="O34" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P34" t="n">
         <v>307.6533340553059</v>
@@ -37476,7 +37476,7 @@
         <v>428.4516387010908</v>
       </c>
       <c r="O37" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P37" t="n">
         <v>307.6533340553059</v>
@@ -37628,13 +37628,13 @@
         <v>458.3824541356843</v>
       </c>
       <c r="M39" t="n">
-        <v>503.0168661831898</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N39" t="n">
         <v>583.6922706327297</v>
       </c>
       <c r="O39" t="n">
-        <v>511.520156513384</v>
+        <v>460.0739271306251</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>101.2059290193558</v>
+        <v>101.2059290193559</v>
       </c>
       <c r="K40" t="n">
         <v>277.1256801414978</v>
       </c>
       <c r="L40" t="n">
-        <v>401.8727935817348</v>
+        <v>401.8727935817336</v>
       </c>
       <c r="M40" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N40" t="n">
         <v>428.4516387010908</v>
       </c>
       <c r="O40" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P40" t="n">
         <v>307.6533340553059</v>
       </c>
       <c r="Q40" t="n">
-        <v>138.4502995641581</v>
+        <v>138.4502995641582</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37859,10 +37859,10 @@
         <v>132.9061636449189</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>306.1020700503681</v>
       </c>
       <c r="L42" t="n">
-        <v>86.0539760215201</v>
+        <v>458.3824541356843</v>
       </c>
       <c r="M42" t="n">
         <v>554.4630955659486</v>
@@ -37871,16 +37871,16 @@
         <v>583.6922706327297</v>
       </c>
       <c r="O42" t="n">
-        <v>511.520156513384</v>
+        <v>460.0739271306251</v>
       </c>
       <c r="P42" t="n">
-        <v>391.0116722749049</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>25.01512932375746</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37950,7 +37950,7 @@
         <v>428.4516387010908</v>
       </c>
       <c r="O43" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P43" t="n">
         <v>307.6533340553059</v>
@@ -38017,13 +38017,13 @@
         <v>255.0635279116843</v>
       </c>
       <c r="K44" t="n">
-        <v>433.5251384721838</v>
+        <v>433.5251384721832</v>
       </c>
       <c r="L44" t="n">
         <v>575.1007761169881</v>
       </c>
       <c r="M44" t="n">
-        <v>671.8997542381571</v>
+        <v>671.899754238157</v>
       </c>
       <c r="N44" t="n">
         <v>687.4322072151683</v>
@@ -38108,16 +38108,16 @@
         <v>583.6922706327297</v>
       </c>
       <c r="O45" t="n">
-        <v>224.1012806237565</v>
+        <v>460.0739271306251</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>25.01512932375746</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38181,13 +38181,13 @@
         <v>401.8727935817349</v>
       </c>
       <c r="M46" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N46" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O46" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P46" t="n">
         <v>307.6533340553059</v>
